--- a/data/nzd0168/nzd0168.xlsx
+++ b/data/nzd0168/nzd0168.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G351"/>
+  <dimension ref="A1:G359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9293,9 +9293,7 @@
       <c r="E350" t="n">
         <v>357.4</v>
       </c>
-      <c r="F350" t="n">
-        <v>441.93</v>
-      </c>
+      <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr">
         <is>
           <t>L9</t>
@@ -9324,6 +9322,212 @@
       <c r="G351" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>353.3414285714285</v>
+      </c>
+      <c r="C352" t="n">
+        <v>352.5757142857143</v>
+      </c>
+      <c r="D352" t="n">
+        <v>357.3733333333333</v>
+      </c>
+      <c r="E352" t="n">
+        <v>342.5666666666667</v>
+      </c>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>363.5842857142857</v>
+      </c>
+      <c r="C353" t="n">
+        <v>359.8271428571429</v>
+      </c>
+      <c r="D353" t="n">
+        <v>349.2966666666667</v>
+      </c>
+      <c r="E353" t="n">
+        <v>349.3833333333333</v>
+      </c>
+      <c r="F353" t="n">
+        <v>347.1166666666667</v>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>355.2128571428572</v>
+      </c>
+      <c r="C354" t="n">
+        <v>364.6414285714285</v>
+      </c>
+      <c r="D354" t="n">
+        <v>359.3733333333333</v>
+      </c>
+      <c r="E354" t="n">
+        <v>358.9266666666667</v>
+      </c>
+      <c r="F354" t="inlineStr"/>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr"/>
+      <c r="C355" t="inlineStr"/>
+      <c r="D355" t="n">
+        <v>342.4933333333333</v>
+      </c>
+      <c r="E355" t="n">
+        <v>338.7566666666667</v>
+      </c>
+      <c r="F355" t="n">
+        <v>333.9133333333333</v>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>371.1914285714286</v>
+      </c>
+      <c r="C356" t="n">
+        <v>356.9357142857143</v>
+      </c>
+      <c r="D356" t="n">
+        <v>367.7766666666667</v>
+      </c>
+      <c r="E356" t="n">
+        <v>351.3433333333333</v>
+      </c>
+      <c r="F356" t="n">
+        <v>352.2666666666667</v>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>360.7471428571428</v>
+      </c>
+      <c r="C357" t="n">
+        <v>349.4085714285715</v>
+      </c>
+      <c r="D357" t="n">
+        <v>343.1733333333333</v>
+      </c>
+      <c r="E357" t="n">
+        <v>347.1966666666667</v>
+      </c>
+      <c r="F357" t="n">
+        <v>347.4933333333333</v>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>342.3057142857143</v>
+      </c>
+      <c r="C358" t="n">
+        <v>349.7028571428572</v>
+      </c>
+      <c r="D358" t="n">
+        <v>342.8233333333333</v>
+      </c>
+      <c r="E358" t="n">
+        <v>343.0366666666667</v>
+      </c>
+      <c r="F358" t="n">
+        <v>341.8333333333333</v>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>353.09</v>
+      </c>
+      <c r="C359" t="n">
+        <v>336.84</v>
+      </c>
+      <c r="D359" t="n">
+        <v>320.61</v>
+      </c>
+      <c r="E359" t="n">
+        <v>334.75</v>
+      </c>
+      <c r="F359" t="inlineStr"/>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -9338,7 +9542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B367"/>
+  <dimension ref="A1:B375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13016,6 +13220,86 @@
       </c>
       <c r="B367" t="n">
         <v>-0.36</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>-0.42</v>
       </c>
     </row>
   </sheetData>
@@ -13184,28 +13468,28 @@
         <v>0.0405</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1144489307889498</v>
+        <v>0.1214836164903196</v>
       </c>
       <c r="J2" t="n">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="K2" t="n">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004551654253982074</v>
+        <v>0.005314046025375663</v>
       </c>
       <c r="M2" t="n">
-        <v>9.447820888390284</v>
+        <v>9.391094833297361</v>
       </c>
       <c r="N2" t="n">
-        <v>144.2555513746188</v>
+        <v>142.6695872536141</v>
       </c>
       <c r="O2" t="n">
-        <v>12.01064325399014</v>
+        <v>11.94443750260405</v>
       </c>
       <c r="P2" t="n">
-        <v>352.5814426222391</v>
+        <v>352.5101065265181</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -13261,28 +13545,28 @@
         <v>0.0775</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1323152977217216</v>
+        <v>0.1523321233511322</v>
       </c>
       <c r="J3" t="n">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="K3" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008069863936305044</v>
+        <v>0.01099210545556406</v>
       </c>
       <c r="M3" t="n">
-        <v>7.861139882781227</v>
+        <v>7.852611373020943</v>
       </c>
       <c r="N3" t="n">
-        <v>108.3999211993202</v>
+        <v>107.9174148155234</v>
       </c>
       <c r="O3" t="n">
-        <v>10.41152828355762</v>
+        <v>10.38833070399299</v>
       </c>
       <c r="P3" t="n">
-        <v>345.0425491823489</v>
+        <v>344.8401120256178</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -13338,28 +13622,28 @@
         <v>0.0867</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1626039425539464</v>
+        <v>0.1525193716401171</v>
       </c>
       <c r="J4" t="n">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="K4" t="n">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009390646061904206</v>
+        <v>0.008461550670548657</v>
       </c>
       <c r="M4" t="n">
-        <v>9.069444312620314</v>
+        <v>9.118337834641213</v>
       </c>
       <c r="N4" t="n">
-        <v>142.5019199339721</v>
+        <v>143.5657905078241</v>
       </c>
       <c r="O4" t="n">
-        <v>11.93741680322724</v>
+        <v>11.98189427877847</v>
       </c>
       <c r="P4" t="n">
-        <v>345.6361117968281</v>
+        <v>345.7380619879294</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -13415,28 +13699,28 @@
         <v>0.0693</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1776421877034116</v>
+        <v>0.1813935396383194</v>
       </c>
       <c r="J5" t="n">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="K5" t="n">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01079679031577985</v>
+        <v>0.0117792043479148</v>
       </c>
       <c r="M5" t="n">
-        <v>9.539100241506095</v>
+        <v>9.445681426886328</v>
       </c>
       <c r="N5" t="n">
-        <v>149.2570468532398</v>
+        <v>146.7278176995498</v>
       </c>
       <c r="O5" t="n">
-        <v>12.21708012797001</v>
+        <v>12.11312584346211</v>
       </c>
       <c r="P5" t="n">
-        <v>340.4602067630375</v>
+        <v>340.4234087041639</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -13492,28 +13776,28 @@
         <v>0.0858</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.07124055220685707</v>
+        <v>-0.1839958302251093</v>
       </c>
       <c r="J6" t="n">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="K6" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003825029346068431</v>
+        <v>0.002739340736689577</v>
       </c>
       <c r="M6" t="n">
-        <v>17.8372639645073</v>
+        <v>17.20571704393608</v>
       </c>
       <c r="N6" t="n">
-        <v>658.120885878139</v>
+        <v>622.2661161451858</v>
       </c>
       <c r="O6" t="n">
-        <v>25.65386687963705</v>
+        <v>24.94526239880402</v>
       </c>
       <c r="P6" t="n">
-        <v>358.6031815854677</v>
+        <v>359.7621833376628</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -13550,7 +13834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G351"/>
+  <dimension ref="A1:G359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25309,11 +25593,7 @@
           <t>-36.770467337727666,175.7492580656485</t>
         </is>
       </c>
-      <c r="F350" t="inlineStr">
-        <is>
-          <t>-36.771131366841566,175.75022938188718</t>
-        </is>
-      </c>
+      <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr">
         <is>
           <t>L9</t>
@@ -25350,6 +25630,282 @@
       <c r="G351" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>-36.76833309862853,175.74968895314103</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>-36.76903088325777,175.749451434715</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>-36.769750472504974,175.74936412866134</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>-36.77046392766382,175.74909202978563</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>-36.76835476716042,175.74980043261115</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>-36.769043014121465,175.74953121559923</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>-36.76974195222392,175.74927431673248</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>-36.77046549478947,175.74916833165972</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>-36.77117346555553,175.7491690310783</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>-36.76833705760122,175.74970932107348</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>-36.769051067875886,175.74958418282563</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>-36.769752582345234,175.74938636851408</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>-36.770467688682835,175.74927515428337</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr"/>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr"/>
+      <c r="C355" t="inlineStr"/>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>-36.76973477516122,175.7491986641871</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>-36.77046305173795,175.74904938282128</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>-36.77117932731052,175.74902137063884</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>-36.768370859829105,175.74988322597804</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>-36.76903817707755,175.74949940383348</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>-36.76976144714461,175.7494798129724</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>-36.77046594537689,175.74919027078045</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>-36.771171179110794,175.7492266264689</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>-36.768348765259816,175.7497695541916</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>-36.76902558494969,175.74941658952477</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>-36.769735492518045,175.7492062257345</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>-36.770464992088506,175.74914385536172</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>-36.77117329832783,175.74917324355687</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>-36.76830975270529,175.7495688445702</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>-36.76902607726021,175.74941982728248</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>-36.76973512329033,175.74920233376156</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>-36.77046403571661,175.74909729069725</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>-36.77117581116737,175.74910994453947</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>-36.768332566735744,175.74968621668614</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>-36.7690045589044,175.749278309014</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>-36.76971168937407,175.74895532327233</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>-36.7704621305815,175.74900453448257</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr"/>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0168/nzd0168.xlsx
+++ b/data/nzd0168/nzd0168.xlsx
@@ -13313,7 +13313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13404,35 +13404,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -13491,27 +13496,28 @@
       <c r="P2" t="n">
         <v>352.5101065265181</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.74584335027512 -36.76758554716736, 175.75586451350387 -36.76953327890201)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.7458433502751</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.76758554716736</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.7558645135039</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.76953327890201</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.7508539318895</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.76855941303468</v>
       </c>
     </row>
@@ -13568,27 +13574,28 @@
       <c r="P3" t="n">
         <v>344.8401120256178</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.74557239064612 -36.76844099591339, 175.75570291251535 -36.76998125888794)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.7455723906461</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.76844099591339</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.7557029125153</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.76998125888794</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.7506376515807</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.76921112740067</v>
       </c>
     </row>
@@ -13645,27 +13652,28 @@
       <c r="P4" t="n">
         <v>345.7380619879294</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.74539017888284 -36.76937340452099, 175.7556294884235 -36.77034468155712)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.7453901788828</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.76937340452099</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.7556294884235</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.77034468155712</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.7505098336532</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.76985904303906</v>
       </c>
     </row>
@@ -13722,27 +13730,28 @@
       <c r="P5" t="n">
         <v>340.4234087041639</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.7452575341047 -36.77038510961123, 175.7555646979712 -36.770596691812834)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.7452575341047</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.77038510961123</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.7555646979712</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.77059669181283</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.750411116038</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.77049090071203</v>
       </c>
     </row>
@@ -13799,27 +13808,28 @@
       <c r="P6" t="n">
         <v>359.7621833376628</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.7452870151858 -36.77132751084565, 175.75558504315305 -36.77091858804578)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.7452870151858</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.77132751084565</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.755585043153</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.77091858804578</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.7504360291694</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.77112304944572</v>
       </c>
     </row>

--- a/data/nzd0168/nzd0168.xlsx
+++ b/data/nzd0168/nzd0168.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G359"/>
+  <dimension ref="A1:G364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9528,6 +9528,139 @@
       <c r="G359" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>354.0085714285714</v>
+      </c>
+      <c r="C360" t="n">
+        <v>349.4442857142857</v>
+      </c>
+      <c r="D360" t="n">
+        <v>359.6466666666666</v>
+      </c>
+      <c r="E360" t="n">
+        <v>343.6433333333333</v>
+      </c>
+      <c r="F360" t="n">
+        <v>356.3666666666667</v>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>357.3971428571429</v>
+      </c>
+      <c r="C361" t="n">
+        <v>352.8785714285714</v>
+      </c>
+      <c r="D361" t="n">
+        <v>346.9666666666667</v>
+      </c>
+      <c r="E361" t="n">
+        <v>350.2833333333333</v>
+      </c>
+      <c r="F361" t="n">
+        <v>347.7066666666666</v>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>349.4771428571428</v>
+      </c>
+      <c r="C362" t="n">
+        <v>348.8485714285715</v>
+      </c>
+      <c r="D362" t="n">
+        <v>355.41</v>
+      </c>
+      <c r="E362" t="n">
+        <v>341.83</v>
+      </c>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>353.0271428571428</v>
+      </c>
+      <c r="C363" t="n">
+        <v>350.1985714285714</v>
+      </c>
+      <c r="D363" t="n">
+        <v>343.1433333333333</v>
+      </c>
+      <c r="E363" t="n">
+        <v>346.7266666666667</v>
+      </c>
+      <c r="F363" t="n">
+        <v>342.9233333333333</v>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>348.4928571428572</v>
+      </c>
+      <c r="C364" t="n">
+        <v>331.7214285714285</v>
+      </c>
+      <c r="D364" t="n">
+        <v>335.73</v>
+      </c>
+      <c r="E364" t="n">
+        <v>325.39</v>
+      </c>
+      <c r="F364" t="n">
+        <v>336.4</v>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -9542,7 +9675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B375"/>
+  <dimension ref="A1:B380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13300,6 +13433,56 @@
       </c>
       <c r="B375" t="n">
         <v>-0.42</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -13473,28 +13656,28 @@
         <v>0.0405</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1214836164903196</v>
+        <v>0.111573597082889</v>
       </c>
       <c r="J2" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K2" t="n">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005314046025375663</v>
+        <v>0.00462704878678355</v>
       </c>
       <c r="M2" t="n">
-        <v>9.391094833297361</v>
+        <v>9.293591854431133</v>
       </c>
       <c r="N2" t="n">
-        <v>142.6695872536141</v>
+        <v>140.7007180748433</v>
       </c>
       <c r="O2" t="n">
-        <v>11.94443750260405</v>
+        <v>11.8617333503516</v>
       </c>
       <c r="P2" t="n">
-        <v>352.5101065265181</v>
+        <v>352.6122883633445</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13551,28 +13734,28 @@
         <v>0.0775</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1523321233511322</v>
+        <v>0.145498420338686</v>
       </c>
       <c r="J3" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K3" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01099210545556406</v>
+        <v>0.01028310837526758</v>
       </c>
       <c r="M3" t="n">
-        <v>7.852611373020943</v>
+        <v>7.804326963273152</v>
       </c>
       <c r="N3" t="n">
-        <v>107.9174148155234</v>
+        <v>107.17338449621</v>
       </c>
       <c r="O3" t="n">
-        <v>10.38833070399299</v>
+        <v>10.35245789637466</v>
       </c>
       <c r="P3" t="n">
-        <v>344.8401120256178</v>
+        <v>344.9107069851672</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13629,28 +13812,28 @@
         <v>0.0867</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1525193716401171</v>
+        <v>0.1477996812948922</v>
       </c>
       <c r="J4" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K4" t="n">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008461550670548657</v>
+        <v>0.008153019981962495</v>
       </c>
       <c r="M4" t="n">
-        <v>9.118337834641213</v>
+        <v>9.099631254187345</v>
       </c>
       <c r="N4" t="n">
-        <v>143.5657905078241</v>
+        <v>142.4788665137266</v>
       </c>
       <c r="O4" t="n">
-        <v>11.98189427877847</v>
+        <v>11.93645116915939</v>
       </c>
       <c r="P4" t="n">
-        <v>345.7380619879294</v>
+        <v>345.786213885505</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13707,28 +13890,28 @@
         <v>0.0693</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1813935396383194</v>
+        <v>0.1705233465589738</v>
       </c>
       <c r="J5" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K5" t="n">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0117792043479148</v>
+        <v>0.01067251174240147</v>
       </c>
       <c r="M5" t="n">
-        <v>9.445681426886328</v>
+        <v>9.397075413529359</v>
       </c>
       <c r="N5" t="n">
-        <v>146.7278176995498</v>
+        <v>145.7535123232607</v>
       </c>
       <c r="O5" t="n">
-        <v>12.11312584346211</v>
+        <v>12.07284193233974</v>
       </c>
       <c r="P5" t="n">
-        <v>340.4234087041639</v>
+        <v>340.5332236903527</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13785,28 +13968,28 @@
         <v>0.0858</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1839958302251093</v>
+        <v>-0.2121363054835255</v>
       </c>
       <c r="J6" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K6" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002739340736689577</v>
+        <v>0.003743517077086866</v>
       </c>
       <c r="M6" t="n">
-        <v>17.20571704393608</v>
+        <v>17.03268347621652</v>
       </c>
       <c r="N6" t="n">
-        <v>622.2661161451858</v>
+        <v>614.7433187260349</v>
       </c>
       <c r="O6" t="n">
-        <v>24.94526239880402</v>
+        <v>24.79401780119622</v>
       </c>
       <c r="P6" t="n">
-        <v>359.7621833376628</v>
+        <v>360.057341275718</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13844,7 +14027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G359"/>
+  <dimension ref="A1:G364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25919,6 +26102,187 @@
         </is>
       </c>
     </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>-36.76833450995738,175.74969621407553</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>-36.7690256446961,175.74941698245655</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>-36.76975287068974,175.74938940796068</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>-36.77046417518865,175.74910408137748</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>-36.771169358814554,175.74927247910622</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>-36.76834167841292,175.74973309402907</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>-36.76903138990644,175.74945476677672</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>-36.76973949423489,175.74924840730975</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>-36.77046570169236,175.74917840574577</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>-36.77117320361472,175.74917562938543</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>-36.76832492379191,175.74964689569873</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>-36.76902464812551,175.7494104283549</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>-36.76974840134104,175.74934229654016</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>-36.770463758304004,175.74908378395963</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>-36.76833243376254,175.74968553257244</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>-36.76902690654036,175.74942528117535</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>-36.76973546086996,175.74920589213684</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>-36.77046488403778,175.7491385944501</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>-36.77117532724858,175.74912213463344</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>-36.768322841548276,175.74963618310198</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>-36.768995995965774,175.74922199406691</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>-36.769727640247524,175.74912345644964</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>-36.770459978595795,175.7488997639874</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>-36.77117822334336,175.74904918045914</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0168/nzd0168.xlsx
+++ b/data/nzd0168/nzd0168.xlsx
@@ -9675,7 +9675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B380"/>
+  <dimension ref="A1:B381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13483,6 +13483,16 @@
       </c>
       <c r="B380" t="n">
         <v>0.18</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>-0.47</v>
       </c>
     </row>
   </sheetData>

--- a/data/nzd0168/nzd0168.xlsx
+++ b/data/nzd0168/nzd0168.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G364"/>
+  <dimension ref="A1:G366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9659,6 +9659,60 @@
         <v>336.4</v>
       </c>
       <c r="G364" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>379.8628571428572</v>
+      </c>
+      <c r="C365" t="n">
+        <v>363.1414285714285</v>
+      </c>
+      <c r="D365" t="n">
+        <v>369.4266666666667</v>
+      </c>
+      <c r="E365" t="n">
+        <v>359.9533333333333</v>
+      </c>
+      <c r="F365" t="n">
+        <v>360.7566666666667</v>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>351.0785714285714</v>
+      </c>
+      <c r="C366" t="n">
+        <v>348.6642857142857</v>
+      </c>
+      <c r="D366" t="n">
+        <v>359.5033333333333</v>
+      </c>
+      <c r="E366" t="n">
+        <v>349.9966666666667</v>
+      </c>
+      <c r="F366" t="n">
+        <v>353.1433333333333</v>
+      </c>
+      <c r="G366" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9675,7 +9729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B381"/>
+  <dimension ref="A1:B383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13493,6 +13547,26 @@
       </c>
       <c r="B381" t="n">
         <v>-0.47</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>-0.65</v>
       </c>
     </row>
   </sheetData>
@@ -13666,28 +13740,28 @@
         <v>0.0405</v>
       </c>
       <c r="I2" t="n">
-        <v>0.111573597082889</v>
+        <v>0.1240482217959805</v>
       </c>
       <c r="J2" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K2" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00462704878678355</v>
+        <v>0.005710044979638118</v>
       </c>
       <c r="M2" t="n">
-        <v>9.293591854431133</v>
+        <v>9.337063281538773</v>
       </c>
       <c r="N2" t="n">
-        <v>140.7007180748433</v>
+        <v>141.7450842098793</v>
       </c>
       <c r="O2" t="n">
-        <v>11.8617333503516</v>
+        <v>11.90567445422053</v>
       </c>
       <c r="P2" t="n">
-        <v>352.6122883633445</v>
+        <v>352.482793207613</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13744,28 +13818,28 @@
         <v>0.0775</v>
       </c>
       <c r="I3" t="n">
-        <v>0.145498420338686</v>
+        <v>0.1546215253736</v>
       </c>
       <c r="J3" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K3" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01028310837526758</v>
+        <v>0.01167991963926474</v>
       </c>
       <c r="M3" t="n">
-        <v>7.804326963273152</v>
+        <v>7.796953127192448</v>
       </c>
       <c r="N3" t="n">
-        <v>107.17338449621</v>
+        <v>107.150643697974</v>
       </c>
       <c r="O3" t="n">
-        <v>10.35245789637466</v>
+        <v>10.35135950964771</v>
       </c>
       <c r="P3" t="n">
-        <v>344.9107069851672</v>
+        <v>344.8162041443777</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13822,28 +13896,28 @@
         <v>0.0867</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1477996812948922</v>
+        <v>0.1662956406951287</v>
       </c>
       <c r="J4" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K4" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008153019981962495</v>
+        <v>0.0103264555410526</v>
       </c>
       <c r="M4" t="n">
-        <v>9.099631254187345</v>
+        <v>9.123961931142052</v>
       </c>
       <c r="N4" t="n">
-        <v>142.4788665137266</v>
+        <v>143.1021688179585</v>
       </c>
       <c r="O4" t="n">
-        <v>11.93645116915939</v>
+        <v>11.96253187322644</v>
       </c>
       <c r="P4" t="n">
-        <v>345.786213885505</v>
+        <v>345.5981294795686</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13900,28 +13974,28 @@
         <v>0.0693</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1705233465589738</v>
+        <v>0.1828397085251896</v>
       </c>
       <c r="J5" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K5" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01067251174240147</v>
+        <v>0.01234474602392444</v>
       </c>
       <c r="M5" t="n">
-        <v>9.397075413529359</v>
+        <v>9.397201005960133</v>
       </c>
       <c r="N5" t="n">
-        <v>145.7535123232607</v>
+        <v>145.6122921174853</v>
       </c>
       <c r="O5" t="n">
-        <v>12.07284193233974</v>
+        <v>12.06699184210735</v>
       </c>
       <c r="P5" t="n">
-        <v>340.5332236903527</v>
+        <v>340.4081471035145</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13978,28 +14052,28 @@
         <v>0.0858</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2121363054835255</v>
+        <v>-0.2085272946995858</v>
       </c>
       <c r="J6" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K6" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003743517077086866</v>
+        <v>0.003674374658218404</v>
       </c>
       <c r="M6" t="n">
-        <v>17.03268347621652</v>
+        <v>16.939216462616</v>
       </c>
       <c r="N6" t="n">
-        <v>614.7433187260349</v>
+        <v>610.2034233614966</v>
       </c>
       <c r="O6" t="n">
-        <v>24.79401780119622</v>
+        <v>24.70229591275873</v>
       </c>
       <c r="P6" t="n">
-        <v>360.057341275718</v>
+        <v>360.0192614044188</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14037,7 +14111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G364"/>
+  <dimension ref="A1:G366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19049,7 +19123,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>-36.77046430929601,175.74911061087772</t>
+          <t>-36.770464309296,175.74911061087772</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -26293,6 +26367,80 @@
         </is>
       </c>
     </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>-36.76838920388817,175.74997760268025</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>-36.769048558548455,175.74956767968285</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>-36.76976318774502,175.74949816085493</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>-36.77046792469496,175.74928664620373</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>-36.77116740974613,175.74932157497523</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>-36.768328311591134,175.74966432504817</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>-36.76902433983381,175.7494084008271</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>-36.76975271948469,175.74938781410452</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>-36.77046563579005,175.7491751969628</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>-36.77117078989447,175.74923643073228</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0168/nzd0168.xlsx
+++ b/data/nzd0168/nzd0168.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G366"/>
+  <dimension ref="A1:G367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9713,6 +9713,31 @@
         <v>353.1433333333333</v>
       </c>
       <c r="G366" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>348.4957142857143</v>
+      </c>
+      <c r="C367" t="n">
+        <v>350.5628571428572</v>
+      </c>
+      <c r="D367" t="n">
+        <v>354.9133333333334</v>
+      </c>
+      <c r="E367" t="n">
+        <v>353.6066666666667</v>
+      </c>
+      <c r="F367" t="inlineStr"/>
+      <c r="G367" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9729,7 +9754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B383"/>
+  <dimension ref="A1:B384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13567,6 +13592,16 @@
       </c>
       <c r="B383" t="n">
         <v>-0.65</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>-0.83</v>
       </c>
     </row>
   </sheetData>
@@ -13740,28 +13775,28 @@
         <v>0.0405</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1240482217959805</v>
+        <v>0.1195551401373756</v>
       </c>
       <c r="J2" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K2" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005710044979638118</v>
+        <v>0.005334583747473975</v>
       </c>
       <c r="M2" t="n">
-        <v>9.337063281538773</v>
+        <v>9.32613380878249</v>
       </c>
       <c r="N2" t="n">
-        <v>141.7450842098793</v>
+        <v>141.4582601342835</v>
       </c>
       <c r="O2" t="n">
-        <v>11.90567445422053</v>
+        <v>11.89362266655048</v>
       </c>
       <c r="P2" t="n">
-        <v>352.482793207613</v>
+        <v>352.5295887787339</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13818,28 +13853,28 @@
         <v>0.0775</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1546215253736</v>
+        <v>0.1557139396110867</v>
       </c>
       <c r="J3" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K3" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01167991963926474</v>
+        <v>0.01192029785588811</v>
       </c>
       <c r="M3" t="n">
-        <v>7.796953127192448</v>
+        <v>7.777092648194984</v>
       </c>
       <c r="N3" t="n">
-        <v>107.150643697974</v>
+        <v>106.8178531745233</v>
       </c>
       <c r="O3" t="n">
-        <v>10.35135950964771</v>
+        <v>10.33527228352129</v>
       </c>
       <c r="P3" t="n">
-        <v>344.8162041443777</v>
+        <v>344.8048534963081</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13896,28 +13931,28 @@
         <v>0.0867</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1662956406951287</v>
+        <v>0.1693968409671983</v>
       </c>
       <c r="J4" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K4" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0103264555410526</v>
+        <v>0.01077581539256101</v>
       </c>
       <c r="M4" t="n">
-        <v>9.123961931142052</v>
+        <v>9.108796238008731</v>
       </c>
       <c r="N4" t="n">
-        <v>143.1021688179585</v>
+        <v>142.7289209359025</v>
       </c>
       <c r="O4" t="n">
-        <v>11.96253187322644</v>
+        <v>11.94692098140364</v>
       </c>
       <c r="P4" t="n">
-        <v>345.5981294795686</v>
+        <v>345.56650733261</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13974,28 +14009,28 @@
         <v>0.0693</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1828397085251896</v>
+        <v>0.1880119111856628</v>
       </c>
       <c r="J5" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K5" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01234474602392444</v>
+        <v>0.01310808005783737</v>
       </c>
       <c r="M5" t="n">
-        <v>9.397201005960133</v>
+        <v>9.392586804300285</v>
       </c>
       <c r="N5" t="n">
-        <v>145.6122921174853</v>
+        <v>145.376389547596</v>
       </c>
       <c r="O5" t="n">
-        <v>12.06699184210735</v>
+        <v>12.05721317500839</v>
       </c>
       <c r="P5" t="n">
-        <v>340.4081471035145</v>
+        <v>340.3554707029969</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14055,7 +14090,7 @@
         <v>-0.2085272946995858</v>
       </c>
       <c r="J6" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K6" t="n">
         <v>262</v>
@@ -14111,7 +14146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G366"/>
+  <dimension ref="A1:G367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26441,6 +26476,39 @@
         </is>
       </c>
     </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>-36.76832284759253,175.74963621419803</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>-36.76902751595357,175.74942928907942</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>-36.7697478773957,175.7493367736438</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>-36.77046646569303,175.74921560524132</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr"/>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0168/nzd0168.xlsx
+++ b/data/nzd0168/nzd0168.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G367"/>
+  <dimension ref="A1:G370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9740,6 +9740,85 @@
       <c r="G367" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>353.2614285714285</v>
+      </c>
+      <c r="C368" t="n">
+        <v>352.0757142857143</v>
+      </c>
+      <c r="D368" t="n">
+        <v>361.9766666666666</v>
+      </c>
+      <c r="E368" t="n">
+        <v>348.8833333333333</v>
+      </c>
+      <c r="F368" t="n">
+        <v>349.4666666666666</v>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>354.1357142857143</v>
+      </c>
+      <c r="C369" t="n">
+        <v>350.7028571428572</v>
+      </c>
+      <c r="D369" t="n">
+        <v>361.4333333333333</v>
+      </c>
+      <c r="E369" t="n">
+        <v>351.1366666666667</v>
+      </c>
+      <c r="F369" t="n">
+        <v>357.2833333333334</v>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>350.6542857142857</v>
+      </c>
+      <c r="C370" t="n">
+        <v>351.5471428571428</v>
+      </c>
+      <c r="D370" t="n">
+        <v>358.33</v>
+      </c>
+      <c r="E370" t="n">
+        <v>358.52</v>
+      </c>
+      <c r="F370" t="inlineStr"/>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -9754,7 +9833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B384"/>
+  <dimension ref="A1:B387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13602,6 +13681,36 @@
       </c>
       <c r="B384" t="n">
         <v>-0.83</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>-0.57</v>
       </c>
     </row>
   </sheetData>
@@ -13775,28 +13884,28 @@
         <v>0.0405</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1195551401373756</v>
+        <v>0.1141009597502263</v>
       </c>
       <c r="J2" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K2" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005334583747473975</v>
+        <v>0.004953570130757368</v>
       </c>
       <c r="M2" t="n">
-        <v>9.32613380878249</v>
+        <v>9.260314117684882</v>
       </c>
       <c r="N2" t="n">
-        <v>141.4582601342835</v>
+        <v>140.2248093404102</v>
       </c>
       <c r="O2" t="n">
-        <v>11.89362266655048</v>
+        <v>11.84165568408448</v>
       </c>
       <c r="P2" t="n">
-        <v>352.5295887787339</v>
+        <v>352.5867569346202</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13853,28 +13962,28 @@
         <v>0.0775</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1557139396110867</v>
+        <v>0.1604969252863078</v>
       </c>
       <c r="J3" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K3" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01192029785588811</v>
+        <v>0.01289712822863764</v>
       </c>
       <c r="M3" t="n">
-        <v>7.777092648194984</v>
+        <v>7.725084462121962</v>
       </c>
       <c r="N3" t="n">
-        <v>106.8178531745233</v>
+        <v>105.8680969340132</v>
       </c>
       <c r="O3" t="n">
-        <v>10.33527228352129</v>
+        <v>10.2892223677989</v>
       </c>
       <c r="P3" t="n">
-        <v>344.8048534963081</v>
+        <v>344.7548584010704</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13931,28 +14040,28 @@
         <v>0.0867</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1693968409671983</v>
+        <v>0.1887688517934095</v>
       </c>
       <c r="J4" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K4" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01077581539256101</v>
+        <v>0.01351254791845924</v>
       </c>
       <c r="M4" t="n">
-        <v>9.108796238008731</v>
+        <v>9.107442926548005</v>
       </c>
       <c r="N4" t="n">
-        <v>142.7289209359025</v>
+        <v>142.437726349189</v>
       </c>
       <c r="O4" t="n">
-        <v>11.94692098140364</v>
+        <v>11.93472774508028</v>
       </c>
       <c r="P4" t="n">
-        <v>345.56650733261</v>
+        <v>345.3677974184981</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14009,28 +14118,28 @@
         <v>0.0693</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1880119111856628</v>
+        <v>0.2017216332396462</v>
       </c>
       <c r="J5" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K5" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01310808005783737</v>
+        <v>0.01528077604066136</v>
       </c>
       <c r="M5" t="n">
-        <v>9.392586804300285</v>
+        <v>9.369911504154752</v>
       </c>
       <c r="N5" t="n">
-        <v>145.376389547596</v>
+        <v>144.6967992930008</v>
       </c>
       <c r="O5" t="n">
-        <v>12.05721317500839</v>
+        <v>12.02899826639778</v>
       </c>
       <c r="P5" t="n">
-        <v>340.3554707029969</v>
+        <v>340.2149149825183</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14087,28 +14196,28 @@
         <v>0.0858</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2085272946995858</v>
+        <v>-0.210347250447165</v>
       </c>
       <c r="J6" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K6" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003674374658218404</v>
+        <v>0.003797443868423844</v>
       </c>
       <c r="M6" t="n">
-        <v>16.939216462616</v>
+        <v>16.83681370390255</v>
       </c>
       <c r="N6" t="n">
-        <v>610.2034233614966</v>
+        <v>605.707386274498</v>
       </c>
       <c r="O6" t="n">
-        <v>24.70229591275873</v>
+        <v>24.61112322252884</v>
       </c>
       <c r="P6" t="n">
-        <v>360.0192614044188</v>
+        <v>360.0386020267941</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14146,7 +14255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G367"/>
+  <dimension ref="A1:G370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26509,6 +26618,113 @@
         </is>
       </c>
     </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>-36.768332929389935,175.74968808245086</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>-36.76903004680928,175.7494459336698</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>-36.76975532864764,175.74941531739046</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>-36.770465379843046,175.74916273494523</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>-36.77117242222984,175.7491953124708</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>-36.76833477892578,175.74969759785108</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>-36.76902775015938,175.74943082937196</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>-36.769754755476264,175.74940927556338</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>-36.77046589786616,175.7491879574718</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>-36.77116895183535,175.74928273071168</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>-36.76832741402102,175.74965970728104</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>-36.76902916256345,175.7494401182793</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>-36.76975148171242,175.74937476672412</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>-36.77046759519721,175.7492706022889</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr"/>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0168/nzd0168.xlsx
+++ b/data/nzd0168/nzd0168.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G370"/>
+  <dimension ref="A1:G371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9819,6 +9819,33 @@
       <c r="G370" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>347.2314285714286</v>
+      </c>
+      <c r="C371" t="n">
+        <v>361.6357142857143</v>
+      </c>
+      <c r="D371" t="n">
+        <v>365.1933333333333</v>
+      </c>
+      <c r="E371" t="n">
+        <v>354.2166666666667</v>
+      </c>
+      <c r="F371" t="n">
+        <v>356.6633333333334</v>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -9833,7 +9860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B387"/>
+  <dimension ref="A1:B388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13711,6 +13738,16 @@
       </c>
       <c r="B387" t="n">
         <v>-0.57</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -13884,28 +13921,28 @@
         <v>0.0405</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1141009597502263</v>
+        <v>0.1089678639438623</v>
       </c>
       <c r="J2" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K2" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004953570130757368</v>
+        <v>0.004542382888532037</v>
       </c>
       <c r="M2" t="n">
-        <v>9.260314117684882</v>
+        <v>9.251789588091563</v>
       </c>
       <c r="N2" t="n">
-        <v>140.2248093404102</v>
+        <v>140.0013982798531</v>
       </c>
       <c r="O2" t="n">
-        <v>11.84165568408448</v>
+        <v>11.83221865416005</v>
       </c>
       <c r="P2" t="n">
-        <v>352.5867569346202</v>
+        <v>352.6408699501969</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13962,28 +13999,28 @@
         <v>0.0775</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1604969252863078</v>
+        <v>0.1683572515450198</v>
       </c>
       <c r="J3" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K3" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01289712822863764</v>
+        <v>0.01419906903973278</v>
       </c>
       <c r="M3" t="n">
-        <v>7.725084462121962</v>
+        <v>7.736468286841477</v>
       </c>
       <c r="N3" t="n">
-        <v>105.8680969340132</v>
+        <v>106.0361212780107</v>
       </c>
       <c r="O3" t="n">
-        <v>10.2892223677989</v>
+        <v>10.29738419590192</v>
       </c>
       <c r="P3" t="n">
-        <v>344.7548584010704</v>
+        <v>344.6721934884699</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14040,28 +14077,28 @@
         <v>0.0867</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1887688517934095</v>
+        <v>0.1978600424457125</v>
       </c>
       <c r="J4" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K4" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01351254791845924</v>
+        <v>0.01485236665872336</v>
       </c>
       <c r="M4" t="n">
-        <v>9.107442926548005</v>
+        <v>9.118748926172342</v>
       </c>
       <c r="N4" t="n">
-        <v>142.437726349189</v>
+        <v>142.6771243794103</v>
       </c>
       <c r="O4" t="n">
-        <v>11.93472774508028</v>
+        <v>11.94475300621199</v>
       </c>
       <c r="P4" t="n">
-        <v>345.3677974184981</v>
+        <v>345.2739660562818</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14118,28 +14155,28 @@
         <v>0.0693</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2017216332396462</v>
+        <v>0.2069793085405081</v>
       </c>
       <c r="J5" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K5" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01528077604066136</v>
+        <v>0.01615214150830702</v>
       </c>
       <c r="M5" t="n">
-        <v>9.369911504154752</v>
+        <v>9.365524444755195</v>
       </c>
       <c r="N5" t="n">
-        <v>144.6967992930008</v>
+        <v>144.4805063815993</v>
       </c>
       <c r="O5" t="n">
-        <v>12.02899826639778</v>
+        <v>12.0200044251905</v>
       </c>
       <c r="P5" t="n">
-        <v>340.2149149825183</v>
+        <v>340.1607018546657</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14196,28 +14233,28 @@
         <v>0.0858</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.210347250447165</v>
+        <v>-0.2087350878535549</v>
       </c>
       <c r="J6" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K6" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003797443868423844</v>
+        <v>0.003769419078383018</v>
       </c>
       <c r="M6" t="n">
-        <v>16.83681370390255</v>
+        <v>16.78444900066392</v>
       </c>
       <c r="N6" t="n">
-        <v>605.707386274498</v>
+        <v>603.4386967481049</v>
       </c>
       <c r="O6" t="n">
-        <v>24.61112322252884</v>
+        <v>24.56498924787277</v>
       </c>
       <c r="P6" t="n">
-        <v>360.0386020267941</v>
+        <v>360.0213323586976</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14255,7 +14292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G370"/>
+  <dimension ref="A1:G371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26725,6 +26762,43 @@
         </is>
       </c>
     </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>-36.76832017301108,175.74962245418698</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>-36.76904603965933,175.74955111367188</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>-36.769758721956364,175.74945108649095</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>-36.77046660592459,175.74922243323297</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>-36.771169227101375,175.74927579689856</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0168/nzd0168.xlsx
+++ b/data/nzd0168/nzd0168.xlsx
@@ -13912,13 +13912,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0345</v>
+        <v>0.0442</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0405</v>
+        <v>0.0536</v>
       </c>
       <c r="I2" t="n">
         <v>0.1089440010027567</v>
@@ -13990,13 +13990,13 @@
         <v>0.2518189462778793</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0601</v>
+        <v>0.0649</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0775</v>
+        <v>0.0849</v>
       </c>
       <c r="I3" t="n">
         <v>0.168374641805821</v>
@@ -14068,13 +14068,13 @@
         <v>0.5032722367972642</v>
       </c>
       <c r="F4" t="n">
-        <v>0.075</v>
+        <v>0.065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0674</v>
+        <v>0.0542</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0867</v>
+        <v>0.081</v>
       </c>
       <c r="I4" t="n">
         <v>0.1978197607269137</v>
@@ -14146,13 +14146,13 @@
         <v>0.755050958470856</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.135</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0562</v>
+        <v>0.1078</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0693</v>
+        <v>0.1881</v>
       </c>
       <c r="I5" t="n">
         <v>0.2070221153202029</v>
@@ -14224,13 +14224,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.075</v>
+        <v>0.035</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06419999999999999</v>
+        <v>0.0291</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0858</v>
+        <v>0.0426</v>
       </c>
       <c r="I6" t="n">
         <v>-0.2087797217107178</v>

--- a/data/nzd0168/nzd0168.xlsx
+++ b/data/nzd0168/nzd0168.xlsx
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>351.08</v>
+        <v>352.19</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.42</v>
+        <v>346.33</v>
       </c>
       <c r="C3" t="n">
         <v>342.72</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352.95</v>
+        <v>351.48</v>
       </c>
       <c r="C4" t="n">
         <v>351.44</v>
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>349.12</v>
+        <v>350.32</v>
       </c>
       <c r="C5" t="n">
         <v>353.08</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>323.44</v>
+        <v>323.35</v>
       </c>
       <c r="C6" t="n">
         <v>332.69</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>354.3</v>
+        <v>353.54</v>
       </c>
       <c r="C7" t="n">
         <v>350.64</v>
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>355.65</v>
+        <v>354.67</v>
       </c>
       <c r="C8" t="n">
         <v>350.52</v>
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>351.47</v>
+        <v>350.05</v>
       </c>
       <c r="C9" t="n">
         <v>348.87</v>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>335.29</v>
+        <v>336.45</v>
       </c>
       <c r="C10" t="n">
         <v>335.05</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>356.44</v>
+        <v>355.6</v>
       </c>
       <c r="C11" t="n">
         <v>347.34</v>
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>350.8</v>
+        <v>349.18</v>
       </c>
       <c r="C12" t="n">
         <v>341.81</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>345.56</v>
+        <v>347.96</v>
       </c>
       <c r="C13" t="n">
         <v>340.63</v>
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>348.39</v>
+        <v>347.95</v>
       </c>
       <c r="C14" t="n">
         <v>344.31</v>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>362.09</v>
+        <v>361.87</v>
       </c>
       <c r="C15" t="n">
         <v>354.27</v>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>342.5</v>
+        <v>343.34</v>
       </c>
       <c r="C16" t="n">
         <v>330.78</v>
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>354.21</v>
+        <v>353.39</v>
       </c>
       <c r="C17" t="n">
         <v>345.9</v>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>371.45</v>
+        <v>373.07</v>
       </c>
       <c r="C18" t="n">
         <v>359.28</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>346.92</v>
+        <v>349.32</v>
       </c>
       <c r="C19" t="n">
         <v>335.64</v>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>324.48</v>
+        <v>326.12</v>
       </c>
       <c r="C20" t="n">
         <v>311.75</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>350.57</v>
+        <v>349.97</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>349.92</v>
+        <v>351.28</v>
       </c>
       <c r="C22" t="n">
         <v>340.6</v>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>356.77</v>
+        <v>356.08</v>
       </c>
       <c r="C23" t="n">
         <v>347.18</v>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>360.74</v>
+        <v>359.56</v>
       </c>
       <c r="C24" t="n">
         <v>346.2</v>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>354.77</v>
+        <v>355.41</v>
       </c>
       <c r="C25" t="n">
         <v>353.35</v>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>331.25</v>
+        <v>332.61</v>
       </c>
       <c r="C26" t="n">
         <v>320.77</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>355.82</v>
+        <v>354.4</v>
       </c>
       <c r="C27" t="n">
         <v>344.51</v>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>372.86</v>
+        <v>371.82</v>
       </c>
       <c r="C28" t="n">
         <v>348.82</v>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>357.79</v>
+        <v>357.99</v>
       </c>
       <c r="C30" t="n">
         <v>349.37</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>359.14</v>
+        <v>358.38</v>
       </c>
       <c r="C31" t="n">
         <v>346.61</v>
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>336.34</v>
+        <v>337.1</v>
       </c>
       <c r="C33" t="n">
         <v>329.31</v>
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>350.58</v>
+        <v>349.96</v>
       </c>
       <c r="C34" t="n">
         <v>339.62</v>
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.57</v>
+        <v>353.06</v>
       </c>
       <c r="C35" t="n">
         <v>343.94</v>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>353.27</v>
+        <v>352.25</v>
       </c>
       <c r="C36" t="n">
         <v>354.26</v>
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>338.69</v>
+        <v>338.45</v>
       </c>
       <c r="C37" t="n">
         <v>334.25</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>331.93</v>
+        <v>332.73</v>
       </c>
       <c r="C40" t="n">
         <v>329.95</v>
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>349.36</v>
+        <v>347.38</v>
       </c>
       <c r="C42" t="n">
         <v>344.15</v>
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>366.55</v>
+        <v>367.44</v>
       </c>
       <c r="C43" t="n">
         <v>354.54</v>
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>350.12</v>
+        <v>348.45</v>
       </c>
       <c r="C45" t="n">
         <v>349.36</v>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>349.3</v>
+        <v>348.17</v>
       </c>
       <c r="C46" t="n">
         <v>342.78</v>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>353.09</v>
+        <v>352.91</v>
       </c>
       <c r="C47" t="n">
         <v>334.66</v>
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>380.59</v>
+        <v>382.17</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>339.85</v>
+        <v>339.83</v>
       </c>
       <c r="C49" t="n">
         <v>335.58</v>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>356.95</v>
+        <v>357.66</v>
       </c>
       <c r="C50" t="n">
         <v>348.44</v>
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>343.5</v>
+        <v>345.34</v>
       </c>
       <c r="C52" t="n">
         <v>333.2</v>
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>336.17</v>
+        <v>337.59</v>
       </c>
       <c r="C53" t="n">
         <v>325.55</v>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>358.35</v>
+        <v>357.28</v>
       </c>
       <c r="C54" t="n">
         <v>350.82</v>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>358.94</v>
+        <v>358.67</v>
       </c>
       <c r="C55" t="n">
         <v>349.73</v>
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>361.59</v>
+        <v>360.75</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>375.73</v>
+        <v>376.57</v>
       </c>
       <c r="C57" t="n">
         <v>366.72</v>
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>366.82</v>
+        <v>365.98</v>
       </c>
       <c r="C58" t="n">
         <v>354.26</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>360.62</v>
+        <v>360.04</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>344.31</v>
+        <v>343.38</v>
       </c>
       <c r="C60" t="n">
         <v>342.7</v>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>354.12</v>
+        <v>353.83</v>
       </c>
       <c r="C62" t="n">
         <v>334.62</v>
@@ -2029,7 +2029,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>342.77</v>
+        <v>343.9</v>
       </c>
       <c r="C63" t="n">
         <v>332.02</v>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>352.78</v>
+        <v>351.67</v>
       </c>
       <c r="C64" t="n">
         <v>348.57</v>
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>352.08</v>
+        <v>351.35</v>
       </c>
       <c r="C66" t="n">
         <v>362.24</v>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>350.48</v>
+        <v>351.35</v>
       </c>
       <c r="C67" t="n">
         <v>343.69</v>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>357.52</v>
+        <v>358.99</v>
       </c>
       <c r="C69" t="n">
         <v>355.34</v>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>347.97</v>
+        <v>346.28</v>
       </c>
       <c r="C70" t="n">
         <v>344.06</v>
@@ -2233,7 +2233,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>358.23</v>
+        <v>357.5</v>
       </c>
       <c r="C71" t="n">
         <v>348.37</v>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>370.68</v>
+        <v>370.37</v>
       </c>
       <c r="C74" t="n">
         <v>365.85</v>
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>360.82</v>
+        <v>362.4</v>
       </c>
       <c r="C75" t="n">
         <v>353.49</v>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>356.45</v>
+        <v>355.23</v>
       </c>
       <c r="C76" t="n">
         <v>344.66</v>
@@ -2406,7 +2406,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>359.38</v>
+        <v>359.05</v>
       </c>
       <c r="C78" t="n">
         <v>350.68</v>
@@ -2433,7 +2433,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>356.08</v>
+        <v>357.72</v>
       </c>
       <c r="C79" t="n">
         <v>349.05</v>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>363.28</v>
+        <v>364.44</v>
       </c>
       <c r="C80" t="n">
         <v>354.93</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>360.63</v>
+        <v>361.7</v>
       </c>
       <c r="C81" t="n">
         <v>353.01</v>
@@ -2510,7 +2510,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>357.23</v>
+        <v>356.59</v>
       </c>
       <c r="C82" t="n">
         <v>352.35</v>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>341.91</v>
+        <v>341.38</v>
       </c>
       <c r="C83" t="n">
         <v>330.22</v>
@@ -2564,7 +2564,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>367.76</v>
+        <v>368.6</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>355.34</v>
+        <v>354.32</v>
       </c>
       <c r="C87" t="n">
         <v>345.42</v>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>346.27</v>
+        <v>346.94</v>
       </c>
       <c r="C88" t="n">
         <v>344.08</v>
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>342.05</v>
+        <v>343.54</v>
       </c>
       <c r="C89" t="n">
         <v>335.13</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>356.88</v>
+        <v>355.1</v>
       </c>
       <c r="C90" t="n">
         <v>348.8</v>
@@ -2739,7 +2739,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>358</v>
+        <v>357.51</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>352.17</v>
+        <v>350.75</v>
       </c>
       <c r="C92" t="n">
         <v>344.08</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>368.44</v>
+        <v>368</v>
       </c>
       <c r="C93" t="n">
         <v>355.06</v>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>360.94</v>
+        <v>362.34</v>
       </c>
       <c r="C94" t="n">
         <v>343.47</v>
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>360.19</v>
+        <v>359.15</v>
       </c>
       <c r="C95" t="n">
         <v>349.7</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>362.14</v>
+        <v>361.47</v>
       </c>
       <c r="C96" t="n">
         <v>352.37</v>
@@ -2893,7 +2893,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>343.53</v>
+        <v>344.22</v>
       </c>
       <c r="C97" t="n">
         <v>342.43</v>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>317.14</v>
+        <v>318.07</v>
       </c>
       <c r="C98" t="n">
         <v>312.44</v>
@@ -2970,7 +2970,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>346.25</v>
+        <v>345.78</v>
       </c>
       <c r="C100" t="n">
         <v>342.91</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>333.45</v>
+        <v>335.21</v>
       </c>
       <c r="C101" t="n">
         <v>326.7</v>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>350.17</v>
+        <v>349.7</v>
       </c>
       <c r="C103" t="n">
         <v>344.14</v>
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>360.21</v>
+        <v>358.57</v>
       </c>
       <c r="C106" t="n">
         <v>364.94</v>
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>363.24</v>
+        <v>362.33</v>
       </c>
       <c r="C108" t="n">
         <v>346.53</v>
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>365.44</v>
+        <v>366.24</v>
       </c>
       <c r="C110" t="n">
         <v>353.74</v>
@@ -3239,7 +3239,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>357.08</v>
+        <v>358.39</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>369.17</v>
+        <v>367.44</v>
       </c>
       <c r="C114" t="n">
         <v>361.91</v>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>370.04</v>
+        <v>371.66</v>
       </c>
       <c r="C115" t="n">
         <v>361.37</v>
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>358.54</v>
+        <v>357.83</v>
       </c>
       <c r="C116" t="n">
         <v>344.54</v>
@@ -3377,7 +3377,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>362.34</v>
+        <v>362.38</v>
       </c>
       <c r="C117" t="n">
         <v>349.3</v>
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>365.34</v>
+        <v>363.98</v>
       </c>
       <c r="C118" t="n">
         <v>348.95</v>
@@ -3427,7 +3427,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>359.97</v>
+        <v>358.88</v>
       </c>
       <c r="C119" t="n">
         <v>354.26</v>
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>361.92</v>
+        <v>361.45</v>
       </c>
       <c r="C120" t="n">
         <v>356.23</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>353.62</v>
+        <v>353.55</v>
       </c>
       <c r="C122" t="n">
         <v>344.97</v>
@@ -3529,7 +3529,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>360.88</v>
+        <v>362.19</v>
       </c>
       <c r="C123" t="n">
         <v>346.59</v>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>351.86</v>
+        <v>352.64</v>
       </c>
       <c r="C124" t="n">
         <v>349.24</v>
@@ -3583,7 +3583,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>363.79</v>
+        <v>365.7</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>361.09</v>
+        <v>360.98</v>
       </c>
       <c r="C126" t="n">
         <v>356.55</v>
@@ -3633,7 +3633,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>358.6</v>
+        <v>357.16</v>
       </c>
       <c r="C127" t="n">
         <v>346.08</v>
@@ -3683,7 +3683,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>368.81</v>
+        <v>369.74</v>
       </c>
       <c r="C129" t="n">
         <v>361.23</v>
@@ -3704,7 +3704,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>351.27</v>
+        <v>350.09</v>
       </c>
       <c r="C130" t="n">
         <v>357.97</v>
@@ -3731,7 +3731,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>309.57</v>
+        <v>311.24</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>347.4</v>
+        <v>349.2</v>
       </c>
       <c r="C132" t="n">
         <v>346.54</v>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>348.86</v>
+        <v>347.44</v>
       </c>
       <c r="C133" t="n">
         <v>344.93</v>
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>356.95</v>
+        <v>356.17</v>
       </c>
       <c r="C134" t="n">
         <v>356.96</v>
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>366.76</v>
+        <v>367.43</v>
       </c>
       <c r="C136" t="n">
         <v>354.01</v>
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>373.44</v>
+        <v>375.26</v>
       </c>
       <c r="C137" t="n">
         <v>362.81</v>
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>355.15</v>
+        <v>353.84</v>
       </c>
       <c r="C138" t="n">
         <v>351.42</v>
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>362.23</v>
+        <v>362.19</v>
       </c>
       <c r="C139" t="n">
         <v>358.98</v>
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>365.15</v>
+        <v>365.22</v>
       </c>
       <c r="C140" t="n">
         <v>362.47</v>
@@ -3989,7 +3989,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>356.44</v>
+        <v>356.48</v>
       </c>
       <c r="C141" t="n">
         <v>351.39</v>
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>361.33</v>
+        <v>362.64</v>
       </c>
       <c r="C142" t="n">
         <v>352.09</v>
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>342.24</v>
+        <v>340.44</v>
       </c>
       <c r="C143" t="n">
         <v>342.02</v>
@@ -4070,7 +4070,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>347.24</v>
+        <v>349.06</v>
       </c>
       <c r="C144" t="n">
         <v>351.95</v>
@@ -4093,7 +4093,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>346.49</v>
+        <v>345.2</v>
       </c>
       <c r="C145" t="n">
         <v>343.79</v>
@@ -4118,7 +4118,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>373.59</v>
+        <v>374.17</v>
       </c>
       <c r="C146" t="n">
         <v>355.53</v>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>350.32</v>
+        <v>351.25</v>
       </c>
       <c r="C147" t="n">
         <v>358.61</v>
@@ -4170,7 +4170,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>339.44</v>
+        <v>340.91</v>
       </c>
       <c r="C148" t="n">
         <v>328.7</v>
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>345.12</v>
+        <v>343.63</v>
       </c>
       <c r="C149" t="n">
         <v>340.9</v>
@@ -4220,7 +4220,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>345.75</v>
+        <v>347.51</v>
       </c>
       <c r="C150" t="n">
         <v>336.71</v>
@@ -4270,7 +4270,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>320.05</v>
+        <v>321.83</v>
       </c>
       <c r="C152" t="n">
         <v>308.46</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>351.81</v>
+        <v>350.85</v>
       </c>
       <c r="C153" t="n">
         <v>345.83</v>
@@ -4318,7 +4318,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>352.69</v>
+        <v>351.22</v>
       </c>
       <c r="C154" t="n">
         <v>343.56</v>
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>353.19</v>
+        <v>355.19</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>356.63</v>
+        <v>355.52</v>
       </c>
       <c r="C156" t="n">
         <v>352.74</v>
@@ -4393,7 +4393,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>336.65</v>
+        <v>337.09</v>
       </c>
       <c r="C157" t="n">
         <v>334.87</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>359.63</v>
+        <v>359.59</v>
       </c>
       <c r="C158" t="n">
         <v>354.27</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>368.23</v>
+        <v>368.99</v>
       </c>
       <c r="C159" t="n">
         <v>356.25</v>
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>359.21</v>
+        <v>358.41</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
@@ -4495,7 +4495,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>367.09</v>
+        <v>368.13</v>
       </c>
       <c r="C161" t="n">
         <v>356.61</v>
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>360.95</v>
+        <v>361.24</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>351.69</v>
+        <v>353.09</v>
       </c>
       <c r="C164" t="n">
         <v>346.88</v>
@@ -4595,7 +4595,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>359.55</v>
+        <v>358.24</v>
       </c>
       <c r="C165" t="n">
         <v>349.02</v>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>360.75</v>
+        <v>359.53</v>
       </c>
       <c r="C166" t="n">
         <v>349.36</v>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>362.5</v>
+        <v>363.63</v>
       </c>
       <c r="C167" t="n">
         <v>357.15</v>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>342.81</v>
+        <v>344.52</v>
       </c>
       <c r="C169" t="n">
         <v>316.47</v>
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>362.73</v>
+        <v>361.62</v>
       </c>
       <c r="C170" t="n">
         <v>350.91</v>
@@ -4745,7 +4745,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>343.97</v>
+        <v>342.5</v>
       </c>
       <c r="C171" t="n">
         <v>336.91</v>
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>344.18</v>
+        <v>346.2</v>
       </c>
       <c r="C172" t="n">
         <v>335.78</v>
@@ -4799,7 +4799,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>352.81</v>
+        <v>351.85</v>
       </c>
       <c r="C173" t="n">
         <v>346.93</v>
@@ -4824,7 +4824,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>366.96</v>
+        <v>367.92</v>
       </c>
       <c r="C174" t="n">
         <v>354.29</v>
@@ -4851,7 +4851,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>355.11</v>
+        <v>353.27</v>
       </c>
       <c r="C175" t="n">
         <v>348.26</v>
@@ -4878,7 +4878,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>373.71</v>
+        <v>375.22</v>
       </c>
       <c r="C176" t="n">
         <v>351.37</v>
@@ -4905,7 +4905,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>364.44</v>
+        <v>365.26</v>
       </c>
       <c r="C177" t="n">
         <v>351.74</v>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>348.68</v>
+        <v>348.7</v>
       </c>
       <c r="C178" t="n">
         <v>336.63</v>
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>326.14</v>
+        <v>326.5</v>
       </c>
       <c r="C179" t="n">
         <v>320.02</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>357.18</v>
+        <v>357.05</v>
       </c>
       <c r="C180" t="n">
         <v>347.84</v>
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>373.23</v>
+        <v>374.63</v>
       </c>
       <c r="C181" t="n">
         <v>362.88</v>
@@ -5053,7 +5053,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>359.74</v>
+        <v>361.76</v>
       </c>
       <c r="C183" t="n">
         <v>346.87</v>
@@ -5080,7 +5080,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>345.97</v>
+        <v>345.13</v>
       </c>
       <c r="C184" t="n">
         <v>342.72</v>
@@ -5130,7 +5130,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>342.5</v>
+        <v>342.28</v>
       </c>
       <c r="C186" t="n">
         <v>347.22</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>358</v>
+        <v>358.13</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>348.2</v>
+        <v>346.36</v>
       </c>
       <c r="C188" t="n">
         <v>347.48</v>
@@ -5222,7 +5222,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>348.16</v>
+        <v>349.92</v>
       </c>
       <c r="C190" t="n">
         <v>354.3</v>
@@ -5249,7 +5249,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>344.72</v>
+        <v>343.36</v>
       </c>
       <c r="C191" t="n">
         <v>335.86</v>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>345.89</v>
+        <v>344.96</v>
       </c>
       <c r="C192" t="n">
         <v>341.5</v>
@@ -5299,7 +5299,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>351.67</v>
+        <v>351.36</v>
       </c>
       <c r="C193" t="n">
         <v>336.58</v>
@@ -5326,7 +5326,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>342.13</v>
+        <v>343.35</v>
       </c>
       <c r="C194" t="n">
         <v>350.29</v>
@@ -5353,7 +5353,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>358.52</v>
+        <v>360.08</v>
       </c>
       <c r="C195" t="n">
         <v>359.26</v>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>367.63</v>
+        <v>366.19</v>
       </c>
       <c r="C196" t="n">
         <v>349.28</v>
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>349.56</v>
+        <v>350.96</v>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
@@ -5453,7 +5453,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>368.92</v>
+        <v>371.05</v>
       </c>
       <c r="C199" t="n">
         <v>359.48</v>
@@ -5480,7 +5480,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>367.13</v>
+        <v>369.15</v>
       </c>
       <c r="C200" t="n">
         <v>365.4</v>
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>335.95</v>
+        <v>335.02</v>
       </c>
       <c r="C201" t="n">
         <v>327.49</v>
@@ -5530,7 +5530,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>353.94</v>
+        <v>353.47</v>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="n">
@@ -5555,7 +5555,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>364.67</v>
+        <v>365.05</v>
       </c>
       <c r="C203" t="n">
         <v>357.34</v>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>365.17</v>
+        <v>366.01</v>
       </c>
       <c r="C204" t="n">
         <v>357.76</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>349.46</v>
+        <v>348.02</v>
       </c>
       <c r="C205" t="n">
         <v>346.42</v>
@@ -5634,7 +5634,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>349.64</v>
+        <v>351.64</v>
       </c>
       <c r="C206" t="n">
         <v>351.08</v>
@@ -5657,7 +5657,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>360.93</v>
+        <v>359.82</v>
       </c>
       <c r="C207" t="n">
         <v>356.37</v>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>354.85</v>
+        <v>353.34</v>
       </c>
       <c r="C208" t="n">
         <v>350.92</v>
@@ -5709,7 +5709,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>338.06</v>
+        <v>338.99</v>
       </c>
       <c r="C209" t="n">
         <v>348.13</v>
@@ -5759,7 +5759,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>367.81</v>
+        <v>368.79</v>
       </c>
       <c r="C211" t="n">
         <v>354.74</v>
@@ -5786,7 +5786,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>348.1</v>
+        <v>349.72</v>
       </c>
       <c r="C212" t="n">
         <v>335.26</v>
@@ -5813,7 +5813,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>351.05</v>
+        <v>351.72</v>
       </c>
       <c r="C213" t="n">
         <v>342.8</v>
@@ -5840,7 +5840,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>369.22</v>
+        <v>371.49</v>
       </c>
       <c r="C214" t="n">
         <v>363.93</v>
@@ -5863,7 +5863,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>349.34</v>
+        <v>348.21</v>
       </c>
       <c r="C215" t="n">
         <v>345.18</v>
@@ -5890,7 +5890,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>349.86</v>
+        <v>348.9</v>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr"/>
@@ -5913,7 +5913,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>350.03</v>
+        <v>348.72</v>
       </c>
       <c r="C217" t="n">
         <v>347.32</v>
@@ -5940,7 +5940,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>351.09</v>
+        <v>351.87</v>
       </c>
       <c r="C218" t="n">
         <v>349.29</v>
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>345.68</v>
+        <v>346.57</v>
       </c>
       <c r="C219" t="n">
         <v>343.72</v>
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>358.38</v>
+        <v>356.8</v>
       </c>
       <c r="C221" t="n">
         <v>357.03</v>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>337.66</v>
+        <v>339.17</v>
       </c>
       <c r="C222" t="n">
         <v>332.58</v>
@@ -6065,7 +6065,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>365.32</v>
+        <v>367.19</v>
       </c>
       <c r="C223" t="n">
         <v>364.27</v>
@@ -6088,7 +6088,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>352.05</v>
+        <v>350.85</v>
       </c>
       <c r="C224" t="n">
         <v>352.76</v>
@@ -6115,7 +6115,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>339.56</v>
+        <v>338.25</v>
       </c>
       <c r="C225" t="n">
         <v>344.3</v>
@@ -6142,7 +6142,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>361.93</v>
+        <v>361.95</v>
       </c>
       <c r="C226" t="n">
         <v>354.19</v>
@@ -6169,7 +6169,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>363.38</v>
+        <v>363.22</v>
       </c>
       <c r="C227" t="n">
         <v>357.98</v>
@@ -6194,7 +6194,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>361.55</v>
+        <v>360.11</v>
       </c>
       <c r="C228" t="n">
         <v>349.11</v>
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>348.12</v>
+        <v>350.08</v>
       </c>
       <c r="C229" t="n">
         <v>352.76</v>
@@ -6269,7 +6269,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>329.2</v>
+        <v>330.71</v>
       </c>
       <c r="C231" t="n">
         <v>328.58</v>
@@ -6294,7 +6294,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>352.62</v>
+        <v>351.29</v>
       </c>
       <c r="C232" t="n">
         <v>347.46</v>
@@ -6315,7 +6315,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>347.35</v>
+        <v>347.11</v>
       </c>
       <c r="C233" t="n">
         <v>342.23</v>
@@ -6340,7 +6340,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>364.41</v>
+        <v>364.85</v>
       </c>
       <c r="C234" t="n">
         <v>354.26</v>
@@ -6367,7 +6367,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>356.69</v>
+        <v>356.05</v>
       </c>
       <c r="C235" t="n">
         <v>350.24</v>
@@ -6394,7 +6394,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>361.81</v>
+        <v>362.43</v>
       </c>
       <c r="C236" t="n">
         <v>353.51</v>
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>357.01</v>
+        <v>358.45</v>
       </c>
       <c r="C237" t="n">
         <v>360.7</v>
@@ -6448,7 +6448,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>352.08</v>
+        <v>350.99</v>
       </c>
       <c r="C238" t="n">
         <v>346.38</v>
@@ -6475,7 +6475,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>351.8</v>
+        <v>350.56</v>
       </c>
       <c r="C239" t="n">
         <v>347.88</v>
@@ -6498,7 +6498,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>352.16</v>
+        <v>351.29</v>
       </c>
       <c r="C240" t="n">
         <v>350.35</v>
@@ -6523,7 +6523,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>346.67</v>
+        <v>346.65</v>
       </c>
       <c r="C241" t="n">
         <v>346</v>
@@ -6548,7 +6548,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>355.89</v>
+        <v>356.31</v>
       </c>
       <c r="C242" t="n">
         <v>352.34</v>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>353.12</v>
+        <v>351.7</v>
       </c>
       <c r="C244" t="n">
         <v>354.02</v>
@@ -6625,7 +6625,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>373.4</v>
+        <v>374</v>
       </c>
       <c r="C245" t="n">
         <v>376.23</v>
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>363.81</v>
+        <v>363.97</v>
       </c>
       <c r="C246" t="n">
         <v>355.59</v>
@@ -6679,7 +6679,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>351.13</v>
+        <v>349.57</v>
       </c>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr"/>
@@ -6702,7 +6702,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>333.29</v>
+        <v>334.53</v>
       </c>
       <c r="C248" t="n">
         <v>331.01</v>
@@ -6725,7 +6725,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>359.25</v>
+        <v>357.67</v>
       </c>
       <c r="C249" t="n">
         <v>350.48</v>
@@ -6748,7 +6748,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>367.75</v>
+        <v>369.15</v>
       </c>
       <c r="C250" t="n">
         <v>357.24</v>
@@ -6775,7 +6775,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>351.49</v>
+        <v>352.87</v>
       </c>
       <c r="C251" t="n">
         <v>339.81</v>
@@ -6800,7 +6800,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>354.8</v>
+        <v>354.02</v>
       </c>
       <c r="C252" t="n">
         <v>349.06</v>
@@ -6825,7 +6825,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>350.54</v>
+        <v>349.1</v>
       </c>
       <c r="C253" t="n">
         <v>345.9</v>
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>348.53</v>
+        <v>347.51</v>
       </c>
       <c r="C254" t="n">
         <v>344.37</v>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>367.95</v>
+        <v>368.88</v>
       </c>
       <c r="C255" t="n">
         <v>363.2</v>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>353.24</v>
+        <v>352.6</v>
       </c>
       <c r="C256" t="n">
         <v>351.96</v>
@@ -6929,7 +6929,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>359.13</v>
+        <v>359.37</v>
       </c>
       <c r="C257" t="n">
         <v>345.65</v>
@@ -6956,7 +6956,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>367.65</v>
+        <v>368.43</v>
       </c>
       <c r="C258" t="n">
         <v>351.54</v>
@@ -6983,7 +6983,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>367.2</v>
+        <v>366.98</v>
       </c>
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="n">
@@ -7008,7 +7008,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>367.08</v>
+        <v>368.41</v>
       </c>
       <c r="C260" t="n">
         <v>359.2</v>
@@ -7035,7 +7035,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>346.36</v>
+        <v>347.98</v>
       </c>
       <c r="C261" t="n">
         <v>344.01</v>
@@ -7062,7 +7062,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>348.09</v>
+        <v>350.36</v>
       </c>
       <c r="C262" t="n">
         <v>342.9</v>
@@ -7089,7 +7089,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>352.02</v>
+        <v>351.33</v>
       </c>
       <c r="C263" t="n">
         <v>345.3</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>354.47</v>
+        <v>353.56</v>
       </c>
       <c r="C264" t="n">
         <v>344.87</v>
@@ -7143,7 +7143,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>358.38</v>
+        <v>359.67</v>
       </c>
       <c r="C265" t="inlineStr"/>
       <c r="D265" t="inlineStr"/>
@@ -7164,7 +7164,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>342.24</v>
+        <v>340.6</v>
       </c>
       <c r="C266" t="n">
         <v>346.25</v>
@@ -7191,7 +7191,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>346.14</v>
+        <v>347.7</v>
       </c>
       <c r="C267" t="n">
         <v>362.1</v>
@@ -7237,7 +7237,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>368.99</v>
+        <v>369.37</v>
       </c>
       <c r="C269" t="n">
         <v>364.06</v>
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>343.22</v>
+        <v>342.18</v>
       </c>
       <c r="C270" t="n">
         <v>338.55</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>365.16</v>
+        <v>364.98</v>
       </c>
       <c r="C271" t="n">
         <v>357.93</v>
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>353.51</v>
+        <v>352.78</v>
       </c>
       <c r="C272" t="n">
         <v>339.37</v>
@@ -7339,7 +7339,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>351.62</v>
+        <v>350</v>
       </c>
       <c r="C273" t="inlineStr"/>
       <c r="D273" t="inlineStr"/>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>374.72</v>
+        <v>376.9</v>
       </c>
       <c r="C274" t="n">
         <v>363.24</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>355.28</v>
+        <v>354.46</v>
       </c>
       <c r="C275" t="n">
         <v>339.63</v>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>347.88</v>
+        <v>348.75</v>
       </c>
       <c r="C277" t="n">
         <v>355.22</v>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>355.11</v>
+        <v>354</v>
       </c>
       <c r="C278" t="n">
         <v>351.62</v>
@@ -7487,7 +7487,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>346.38</v>
+        <v>348.51</v>
       </c>
       <c r="C279" t="n">
         <v>339.74</v>
@@ -7514,7 +7514,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>351.33</v>
+        <v>350.64</v>
       </c>
       <c r="C280" t="n">
         <v>347.24</v>
@@ -7539,7 +7539,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>353.19</v>
+        <v>353.48</v>
       </c>
       <c r="C281" t="n">
         <v>353.65</v>
@@ -7566,7 +7566,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>364.89</v>
+        <v>365.07</v>
       </c>
       <c r="C282" t="n">
         <v>355.88</v>
@@ -7591,7 +7591,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>353.16</v>
+        <v>351.52</v>
       </c>
       <c r="C283" t="n">
         <v>348.3</v>
@@ -7618,7 +7618,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>370.25</v>
+        <v>371.85</v>
       </c>
       <c r="C284" t="n">
         <v>359.2</v>
@@ -7645,7 +7645,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>351.5</v>
+        <v>350.39</v>
       </c>
       <c r="C285" t="n">
         <v>345.45</v>
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>340.16</v>
+        <v>341.96</v>
       </c>
       <c r="C286" t="n">
         <v>326.39</v>
@@ -7699,7 +7699,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>351.54</v>
+        <v>350.43</v>
       </c>
       <c r="C287" t="n">
         <v>341.94</v>
@@ -7726,7 +7726,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>361.3</v>
+        <v>361.12</v>
       </c>
       <c r="C288" t="n">
         <v>349.24</v>
@@ -7751,7 +7751,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>361.16</v>
+        <v>360.85</v>
       </c>
       <c r="C289" t="n">
         <v>347.91</v>
@@ -7778,7 +7778,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>339.02</v>
+        <v>339.8</v>
       </c>
       <c r="C290" t="n">
         <v>340.44</v>
@@ -7830,7 +7830,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>328.6</v>
+        <v>328.27</v>
       </c>
       <c r="C292" t="n">
         <v>331.6</v>
@@ -7857,7 +7857,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>349.75</v>
+        <v>348.51</v>
       </c>
       <c r="C293" t="n">
         <v>342.2</v>
@@ -7884,7 +7884,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>360.05</v>
+        <v>362.01</v>
       </c>
       <c r="C294" t="n">
         <v>343.93</v>
@@ -7909,7 +7909,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>362.17</v>
+        <v>362.44</v>
       </c>
       <c r="C295" t="n">
         <v>353.14</v>
@@ -7961,7 +7961,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>360.32</v>
+        <v>360.83</v>
       </c>
       <c r="C297" t="n">
         <v>354.07</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>336.6</v>
+        <v>334.91</v>
       </c>
       <c r="C299" t="n">
         <v>339.1</v>
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>351.94</v>
+        <v>351.41</v>
       </c>
       <c r="C301" t="n">
         <v>348.8</v>
@@ -8084,7 +8084,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>352.26</v>
+        <v>351.08</v>
       </c>
       <c r="C302" t="n">
         <v>346.04</v>
@@ -8111,7 +8111,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>351.54</v>
+        <v>350.36</v>
       </c>
       <c r="C303" t="n">
         <v>345.77</v>
@@ -8138,7 +8138,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>362.64</v>
+        <v>365</v>
       </c>
       <c r="C304" t="n">
         <v>355.59</v>
@@ -8165,7 +8165,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>347</v>
+        <v>345.84</v>
       </c>
       <c r="C305" t="n">
         <v>337.35</v>
@@ -8186,7 +8186,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>342.8</v>
+        <v>341.62</v>
       </c>
       <c r="C306" t="n">
         <v>338.96</v>
@@ -8213,7 +8213,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>328.92</v>
+        <v>328.85</v>
       </c>
       <c r="C307" t="n">
         <v>322.28</v>
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>362.29</v>
+        <v>363.05</v>
       </c>
       <c r="C309" t="n">
         <v>352.04</v>
@@ -8284,7 +8284,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>364.09</v>
+        <v>364.91</v>
       </c>
       <c r="C310" t="n">
         <v>344.36</v>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>349.47</v>
+        <v>348.91</v>
       </c>
       <c r="C312" t="n">
         <v>333.78</v>
@@ -8380,7 +8380,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>320.53</v>
+        <v>321.4</v>
       </c>
       <c r="C314" t="n">
         <v>308.51</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>342.26</v>
+        <v>343.86</v>
       </c>
       <c r="C315" t="n">
         <v>336.58</v>
@@ -8474,7 +8474,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>343.81</v>
+        <v>344.14</v>
       </c>
       <c r="C318" t="n">
         <v>344.02</v>
@@ -8501,7 +8501,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>346.73</v>
+        <v>346.64</v>
       </c>
       <c r="C319" t="n">
         <v>343.28</v>
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>361.02</v>
+        <v>359.71</v>
       </c>
       <c r="C321" t="n">
         <v>351.83</v>
@@ -8574,7 +8574,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>346.74</v>
+        <v>348.72</v>
       </c>
       <c r="C322" t="n">
         <v>341.99</v>
@@ -8601,7 +8601,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>366.65</v>
+        <v>367.92</v>
       </c>
       <c r="C323" t="n">
         <v>353.12</v>
@@ -8628,7 +8628,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>373.06</v>
+        <v>374.42</v>
       </c>
       <c r="C324" t="n">
         <v>362.43</v>
@@ -8655,7 +8655,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>359.97</v>
+        <v>360.66</v>
       </c>
       <c r="C325" t="n">
         <v>354.23</v>
@@ -8682,7 +8682,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>354.58</v>
+        <v>353.27</v>
       </c>
       <c r="C326" t="n">
         <v>352.02</v>
@@ -8705,7 +8705,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>357.22</v>
+        <v>356.51</v>
       </c>
       <c r="C327" t="n">
         <v>345.89</v>
@@ -8751,7 +8751,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>371.88</v>
+        <v>372.84</v>
       </c>
       <c r="C329" t="n">
         <v>358.06</v>
@@ -8778,7 +8778,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>353.61</v>
+        <v>352.37</v>
       </c>
       <c r="C330" t="n">
         <v>338.9</v>
@@ -8805,7 +8805,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>354.6</v>
+        <v>353.87</v>
       </c>
       <c r="C331" t="n">
         <v>341.16</v>
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>360.6</v>
+        <v>360.36</v>
       </c>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr"/>
@@ -8851,7 +8851,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>363.24</v>
+        <v>363.42</v>
       </c>
       <c r="C333" t="n">
         <v>356.81</v>
@@ -8899,7 +8899,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>371.04</v>
+        <v>372.08</v>
       </c>
       <c r="C335" t="n">
         <v>352.27</v>
@@ -8924,7 +8924,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>325.66</v>
+        <v>327.28</v>
       </c>
       <c r="C336" t="n">
         <v>318.9</v>
@@ -8951,7 +8951,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>342.18</v>
+        <v>341.29</v>
       </c>
       <c r="C337" t="n">
         <v>334.09</v>
@@ -8978,7 +8978,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>355.43</v>
+        <v>354.16</v>
       </c>
       <c r="C338" t="n">
         <v>345.94</v>
@@ -9005,7 +9005,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>367.98</v>
+        <v>368.76</v>
       </c>
       <c r="C339" t="n">
         <v>357.35</v>
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>355.91</v>
+        <v>355.84</v>
       </c>
       <c r="C340" t="n">
         <v>337.17</v>
@@ -9059,7 +9059,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>361.98</v>
+        <v>362.58</v>
       </c>
       <c r="C341" t="n">
         <v>350</v>
@@ -9086,7 +9086,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>351.71</v>
+        <v>350.38</v>
       </c>
       <c r="C342" t="n">
         <v>346.33</v>
@@ -9113,7 +9113,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>340.43</v>
+        <v>342.05</v>
       </c>
       <c r="C343" t="n">
         <v>343.25</v>
@@ -9140,7 +9140,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>374.2</v>
+        <v>375.6</v>
       </c>
       <c r="C344" t="n">
         <v>358.91</v>
@@ -9167,7 +9167,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>336.16</v>
+        <v>336.52</v>
       </c>
       <c r="C345" t="n">
         <v>346.04</v>
@@ -9194,7 +9194,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>350.91</v>
+        <v>351.33</v>
       </c>
       <c r="C346" t="n">
         <v>349.5</v>
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>359.83</v>
+        <v>358.47</v>
       </c>
       <c r="C347" t="n">
         <v>346.41</v>
@@ -9248,7 +9248,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>369.47</v>
+        <v>370.74</v>
       </c>
       <c r="C348" t="n">
         <v>357.27</v>
@@ -9273,7 +9273,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>364.78</v>
+        <v>365.51</v>
       </c>
       <c r="C349" t="n">
         <v>357.8</v>
@@ -9298,7 +9298,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>356.6</v>
+        <v>355.8</v>
       </c>
       <c r="C350" t="n">
         <v>350.55</v>
@@ -9323,7 +9323,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>357.37</v>
+        <v>356.33</v>
       </c>
       <c r="C351" t="n">
         <v>353.02</v>
@@ -9350,7 +9350,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>356.47</v>
+        <v>358.31</v>
       </c>
       <c r="C352" t="n">
         <v>359.04</v>
@@ -9377,7 +9377,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>360.27</v>
+        <v>358.96</v>
       </c>
       <c r="C353" t="n">
         <v>365.2</v>
@@ -9425,7 +9425,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>367.42</v>
+        <v>368.4</v>
       </c>
       <c r="C355" t="n">
         <v>356.52</v>
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>358.09</v>
+        <v>358.78</v>
       </c>
       <c r="C356" t="n">
         <v>349.11</v>
@@ -9479,7 +9479,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>342.22</v>
+        <v>342.24</v>
       </c>
       <c r="C357" t="n">
         <v>349.69</v>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>356.69</v>
+        <v>355.76</v>
       </c>
       <c r="C358" t="n">
         <v>337.24</v>
@@ -9531,7 +9531,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>357.18</v>
+        <v>356.36</v>
       </c>
       <c r="C359" t="n">
         <v>349.8</v>
@@ -9558,7 +9558,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>352.34</v>
+        <v>353.65</v>
       </c>
       <c r="C360" t="n">
         <v>352.32</v>
@@ -9585,7 +9585,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>354.62</v>
+        <v>353.29</v>
       </c>
       <c r="C361" t="n">
         <v>349.42</v>
@@ -9610,7 +9610,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>350.37</v>
+        <v>351.06</v>
       </c>
       <c r="C362" t="n">
         <v>349.9</v>
@@ -9637,7 +9637,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>346.95</v>
+        <v>347.35</v>
       </c>
       <c r="C363" t="n">
         <v>331.55</v>
@@ -9683,7 +9683,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>373.52</v>
+        <v>375.16</v>
       </c>
       <c r="C365" t="n">
         <v>362.44</v>
@@ -9710,7 +9710,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>356.65</v>
+        <v>355.21</v>
       </c>
       <c r="C366" t="n">
         <v>349.28</v>
@@ -9737,7 +9737,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>355.61</v>
+        <v>353.77</v>
       </c>
       <c r="C367" t="n">
         <v>351.35</v>
@@ -9762,7 +9762,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>354.89</v>
+        <v>354.47</v>
       </c>
       <c r="C368" t="n">
         <v>352.26</v>
@@ -9789,7 +9789,7 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>352.25</v>
+        <v>352.74</v>
       </c>
       <c r="C369" t="n">
         <v>350.49</v>
@@ -9816,7 +9816,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>355.54</v>
+        <v>354.27</v>
       </c>
       <c r="C370" t="n">
         <v>352.09</v>
@@ -9843,7 +9843,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>342.26</v>
+        <v>343.55</v>
       </c>
       <c r="C371" t="n">
         <v>361.08</v>
@@ -9870,7 +9870,7 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>345.23</v>
+        <v>343.83</v>
       </c>
       <c r="C372" t="n">
         <v>333.45</v>
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>364.97</v>
+        <v>365.64</v>
       </c>
       <c r="C373" t="n">
         <v>356.95</v>
@@ -14042,7 +14042,7 @@
         <v>0.055</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09584392436780952</v>
+        <v>0.09871124199798076</v>
       </c>
       <c r="J2" t="n">
         <v>373</v>
@@ -14051,19 +14051,19 @@
         <v>321</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004166613861462665</v>
+        <v>0.00435933095991492</v>
       </c>
       <c r="M2" t="n">
-        <v>8.373529095480251</v>
+        <v>8.467808608839343</v>
       </c>
       <c r="N2" t="n">
-        <v>118.919813539533</v>
+        <v>120.5417895886738</v>
       </c>
       <c r="O2" t="n">
-        <v>10.90503615489344</v>
+        <v>10.97915249865279</v>
       </c>
       <c r="P2" t="n">
-        <v>352.5691606867823</v>
+        <v>352.5936648797374</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14466,7 +14466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-36.768328314613235,175.7496643405962</t>
+          <t>-36.768330662800814,175.74967642142175</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -14495,7 +14495,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-36.7683205719318,175.74962450652757</t>
+          <t>-36.768318266048624,175.74961264337736</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -14532,7 +14532,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-36.76833227056815,175.74968469297832</t>
+          <t>-36.76832916080711,175.74966869404676</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -14569,7 +14569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-36.76832416826096,175.7496430086897</t>
+          <t>-36.768326706844455,175.74965606904038</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -14606,7 +14606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-36.76826984222108,175.7493635173711</t>
+          <t>-36.768269651824895,175.74936253784608</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -14643,7 +14643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-36.768335126469196,175.74969938587566</t>
+          <t>-36.7683335187029,175.74969111431852</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-36.76833798236837,175.74971407877402</t>
+          <t>-36.7683359091973,175.7497034128181</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -14713,7 +14713,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-36.76832913965225,175.74966858521051</t>
+          <t>-36.7683261356633,175.7496531304614</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -14750,7 +14750,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-36.76829491097982,175.7494924882041</t>
+          <t>-36.768297364960304,175.7495051132011</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -14787,7 +14787,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-36.7683396535974,175.7497226768409</t>
+          <t>-36.768337876594366,175.7497135345926</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-36.768327722277455,175.74966129318088</t>
+          <t>-36.768324295190155,175.7496436617072</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -14861,7 +14861,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-36.76831663712124,175.74960426298725</t>
+          <t>-36.7683217142955,175.74963038368477</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -14898,7 +14898,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-36.768322623955264,175.7496350636434</t>
+          <t>-36.76832169314062,175.74963027484856</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -14935,7 +14935,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-36.76835160603958,175.7497841693544</t>
+          <t>-36.76835114063537,175.74978177495532</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -14972,7 +14972,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-36.768310163715505,175.7495709591024</t>
+          <t>-36.768311940729795,175.74958010134478</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -15009,7 +15009,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-36.76833493607585,175.74969840634915</t>
+          <t>-36.76833320138055,175.7496894817744</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -15042,7 +15042,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-36.76837140682768,175.74988604017562</t>
+          <t>-36.76837483387806,175.74990367166873</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -15079,7 +15079,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-36.768319514187375,175.74961906471546</t>
+          <t>-36.768324591358294,175.74964518541478</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-36.76827204235418,175.74937483632723</t>
+          <t>-36.76827551179258,175.7493926854516</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -15145,7 +15145,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-36.76832723571584,175.74965878994686</t>
+          <t>-36.76832596642441,175.74965225977135</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -15166,7 +15166,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-36.768325860650116,175.74965171559006</t>
+          <t>-36.76832873771019,175.7496665173215</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -15199,7 +15199,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-36.76834035170555,175.74972626843856</t>
+          <t>-36.768338892024765,175.74971875873445</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -15232,7 +15232,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-36.76834875014928,175.74976947645138</t>
+          <t>-36.7683462538881,175.74975663376657</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -15265,7 +15265,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-36.76833612074542,175.74970450118093</t>
+          <t>-36.76833747465311,175.74971146670313</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -15302,7 +15302,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-36.768286364347404,175.74944851839263</t>
+          <t>-36.76828924143345,175.74946332011035</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -15335,7 +15335,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-36.768338342,175.74971592899092</t>
+          <t>-36.76833533801736,175.7497004742385</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -15364,7 +15364,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-36.76837438963095,175.74990138610474</t>
+          <t>-36.76837218954931,175.74989006712147</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -15426,7 +15426,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-36.768342509493635,175.74973736974079</t>
+          <t>-36.768342932589206,175.7497395464668</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -15459,7 +15459,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-36.768345365388,175.74975206264165</t>
+          <t>-36.76834375762548,175.74974379108252</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -15525,7 +15525,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-36.76829713225531,175.74950391600308</t>
+          <t>-36.76829874003498,175.7495121875532</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -15554,7 +15554,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-36.76832725687069,175.74965889878314</t>
+          <t>-36.76832594526957,175.74965215093508</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -15587,7 +15587,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-36.768329351200705,175.74966967357315</t>
+          <t>-36.76833250327126,175.74968589017735</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -15624,7 +15624,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-36.76833294752264,175.7496881757391</t>
+          <t>-36.76833078972983,175.74967707443935</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -15657,7 +15657,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-36.76830210367732,175.74952949250772</t>
+          <t>-36.7683015959579,175.74952688043902</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -15756,7 +15756,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-36.76828780289066,175.74945591925137</t>
+          <t>-36.768289495293885,175.74946462614432</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-36.76832467597778,175.74964562075976</t>
+          <t>-36.76832048731226,175.74962407118258</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -15851,7 +15851,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-36.76836104104167,175.7498327103595</t>
+          <t>-36.7683629238087,175.74984239679452</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -15917,7 +15917,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-36.768326283747314,175.74965389231522</t>
+          <t>-36.76832275088452,175.74963571666092</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-36.76832454904858,175.74964496774226</t>
+          <t>-36.768322158547974,175.74963266924595</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -15991,7 +15991,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-36.768332566735744,175.74968621668614</t>
+          <t>-36.768332185948815,175.74968425763322</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -16028,7 +16028,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-36.7683907421262,175.7499855166428</t>
+          <t>-36.768394084543324,175.75000271279814</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -16061,7 +16061,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-36.76830455765378,175.74954211750685</t>
+          <t>-36.76830451534386,175.74954189983444</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -16094,7 +16094,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-36.768340732491765,175.74972822749186</t>
+          <t>-36.76834223448149,175.7497359548689</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -16152,7 +16152,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-36.76831227920863,175.74958184272435</t>
+          <t>-36.768316171713295,175.74960186859013</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -16189,7 +16189,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-36.76829677262032,175.74950206578796</t>
+          <t>-36.768299776629426,175.74951752052647</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -16222,7 +16222,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-36.76834369416116,175.74974346457364</t>
+          <t>-36.768341430599726,175.74973181908962</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -16259,7 +16259,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-36.76834494229266,175.74974988591555</t>
+          <t>-36.768344371113876,175.74974694733532</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -16296,7 +16296,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-36.76835054830265,175.74977872753834</t>
+          <t>-36.76834877130403,175.74976958528768</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -16321,7 +16321,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-36.76838046100437,175.7499326221481</t>
+          <t>-36.76838223799011,175.74994176440555</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -16358,7 +16358,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-36.76836161221828,175.74983564894086</t>
+          <t>-36.768359835224146,175.74982650668784</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -16391,7 +16391,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-36.768348496292276,175.7497681704156</t>
+          <t>-36.76834726931654,175.74976185790948</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -16420,7 +16420,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-36.76831399275729,175.74959065845852</t>
+          <t>-36.76831202534951,175.74958053668968</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -16490,7 +16490,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-36.7683347456825,175.74969742682262</t>
+          <t>-36.768334132192734,175.74969427057056</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -16527,7 +16527,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-36.76831073489875,175.74957389768025</t>
+          <t>-36.768313125405584,175.74958619617328</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -16564,7 +16564,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-36.768331910936034,175.7496828427617</t>
+          <t>-36.76832956274912,175.74967076193582</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-36.7683304300976,175.74967522422276</t>
+          <t>-36.76832888579412,175.74966727917533</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -16659,7 +16659,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-36.768327045322145,175.74965781042053</t>
+          <t>-36.76832888579412,175.74966727917533</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -16725,7 +16725,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-36.76834193831454,175.74973443116073</t>
+          <t>-36.76834504806649,175.7497504300971</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -16762,7 +16762,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-36.76832173545038,175.74963049252102</t>
+          <t>-36.76831816027413,175.74961209919618</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -16799,7 +16799,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-36.76834344030386,175.749742158538</t>
+          <t>-36.76834189600496,175.74973421348815</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -16886,7 +16886,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-36.76836977792007,175.7498776597751</t>
+          <t>-36.76836912212594,175.7498742858477</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -16923,7 +16923,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-36.76834891938728,175.74977034714192</t>
+          <t>-36.76835226183634,175.7497875432804</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -16956,7 +16956,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-36.7683396747522,175.7497227856772</t>
+          <t>-36.76833709386661,175.74970950764998</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -17026,7 +17026,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-36.76834587310236,175.74975467471302</t>
+          <t>-36.7683451749951,175.74975108311492</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -17063,7 +17063,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-36.768338892024765,175.74971875873445</t>
+          <t>-36.76834236141018,175.7497366078867</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -17100,7 +17100,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-36.76835412345244,175.74979712087713</t>
+          <t>-36.768356577399715,175.7498097458916</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -17137,7 +17137,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-36.76834851744702,175.74976827925192</t>
+          <t>-36.7683507810048,175.74977992473785</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -17166,7 +17166,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-36.768341324825805,175.74973127490813</t>
+          <t>-36.7683399709193,175.7497243093853</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -17203,7 +17203,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-36.76830891557408,175.7495645377657</t>
+          <t>-36.768307794361995,175.74955876944645</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -17240,7 +17240,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-36.768363600758455,175.7498458795578</t>
+          <t>-36.76836537775106,175.7498550218116</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -17331,7 +17331,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-36.76833732656946,175.74971070484912</t>
+          <t>-36.76833516877882,175.74969960354824</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-36.76831813911923,175.74961199035994</t>
+          <t>-36.76831955649717,175.74961928238795</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -17405,7 +17405,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-36.76830921174327,175.74956606147268</t>
+          <t>-36.76831236382833,175.74958227806923</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -17434,7 +17434,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-36.76834058440824,175.7497274656378</t>
+          <t>-36.768336818854124,175.7497080927783</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -17471,7 +17471,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-36.768342953743996,175.74973965530307</t>
+          <t>-36.76834191715975,175.74973432232443</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -17500,7 +17500,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-36.76833062049114,175.74967620374917</t>
+          <t>-36.768327616503186,175.74966074899956</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -17537,7 +17537,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-36.768365039276325,175.7498532804299</t>
+          <t>-36.7683641084707,175.74984849163027</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -17570,7 +17570,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-36.76834917324426,175.74977165317767</t>
+          <t>-36.768352134907936,175.74978689026247</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -17607,7 +17607,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-36.76834758663789,175.74976349045414</t>
+          <t>-36.76834538654278,175.74975217147798</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -17644,7 +17644,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-36.76835171181325,175.749784713536</t>
+          <t>-36.76835029444574,175.74977742150253</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -17677,7 +17677,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-36.76831234267341,175.749582169233</t>
+          <t>-36.768313802363046,175.7495896789325</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -17714,7 +17714,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-36.7682565144681,175.7492949506299</t>
+          <t>-36.76825848190086,175.7493050723856</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -17780,7 +17780,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-36.768318096809445,175.74961177268747</t>
+          <t>-36.768317102529124,175.7496066573844</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -17817,7 +17817,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-36.76829101845624,175.74947246234828</t>
+          <t>-36.76829474173973,175.7494916175147</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -17879,7 +17879,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-36.768326389521604,175.74965443649648</t>
+          <t>-36.76832539524317,175.74964932119244</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -17970,7 +17970,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-36.76834762894739,175.74976370812675</t>
+          <t>-36.768344159566155,175.7497458589723</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -18036,7 +18036,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-36.768354038833536,175.7497966855318</t>
+          <t>-36.76835211375321,175.74978678142614</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -18098,7 +18098,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-36.7683586928704,175.7498206295254</t>
+          <t>-36.768360385246204,175.74982933643278</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -18131,7 +18131,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-36.768341007504,175.7497296423637</t>
+          <t>-36.76834377878026,175.74974389991883</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-36.76836658356704,175.74986122548407</t>
+          <t>-36.7683629238087,175.74984239679452</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -18239,7 +18239,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-36.7683684240224,175.74987069424765</t>
+          <t>-36.768371851075116,175.74988832573948</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -18272,7 +18272,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-36.768344096101856,175.74974553246338</t>
+          <t>-36.76834259411275,175.74973780508597</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -18305,7 +18305,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-36.768352134907936,175.74978689026247</t>
+          <t>-36.76835221952688,175.74978732560777</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -18338,7 +18338,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-36.768358481323375,175.74981954116197</t>
+          <t>-36.76835560428285,175.74980473942026</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -18371,7 +18371,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-36.768347121233234,175.74976109605527</t>
+          <t>-36.768344815364046,175.74974923289773</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -18404,7 +18404,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-36.76835124640904,175.74978231913693</t>
+          <t>-36.76835025213626,175.7497772038299</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -18470,7 +18470,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-36.768333687941485,175.74969198500872</t>
+          <t>-36.76833353985773,175.7496912231548</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -18507,7 +18507,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-36.76834904631578,175.7497710001598</t>
+          <t>-36.768351817586925,175.74978525771763</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -18544,7 +18544,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-36.768329964691134,175.7496728298249</t>
+          <t>-36.76833161476838,175.74968131905388</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -18581,7 +18581,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-36.768355202343216,175.74980267152998</t>
+          <t>-36.76835924289262,175.74982345927026</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -18610,7 +18610,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-36.76834949056547,175.74977328572243</t>
+          <t>-36.76834925786325,175.74977208852295</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -18647,7 +18647,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-36.768344223030475,175.7497461854812</t>
+          <t>-36.76834117674229,175.74973051305406</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -18713,7 +18713,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-36.76836582199908,175.74985730737515</t>
+          <t>-36.7683677893827,175.74986742915672</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -18738,7 +18738,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-36.76832871655534,175.7496664084852</t>
+          <t>-36.768326220282724,175.74965356580643</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -18775,7 +18775,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-36.76824049995566,175.74921256173266</t>
+          <t>-36.76824403288485,175.74923073735198</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -18808,7 +18808,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-36.768320529622045,175.74962428885507</t>
+          <t>-36.7683243374999,175.74964387937973</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -18845,7 +18845,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-36.76832361823434,175.74964017894715</t>
+          <t>-36.768320614241574,175.74962472420006</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -18882,7 +18882,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-36.768340732491765,175.74972822749186</t>
+          <t>-36.768339082417945,175.74971973826104</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -18944,7 +18944,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-36.768361485290136,175.74983499592278</t>
+          <t>-36.76836290265402,175.7498422879582</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -18981,7 +18981,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-36.76837561659908,175.7499076986149</t>
+          <t>-36.76837946673822,175.74992750683754</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -19018,7 +19018,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-36.76833692462816,175.74970863695972</t>
+          <t>-36.76833415334755,175.74969437940683</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -19047,7 +19047,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-36.76835190220587,175.7497856930629</t>
+          <t>-36.768351817586925,175.74978525771763</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -19084,7 +19084,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-36.768358079384,175.74981747327155</t>
+          <t>-36.76835822746693,175.74981823512593</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -19121,7 +19121,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-36.7683396535974,175.7497226768409</t>
+          <t>-36.768339738216575,175.74972311218605</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -19158,7 +19158,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-36.768349998279334,175.74977589779405</t>
+          <t>-36.7683527695499,175.7497901553522</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -19195,7 +19195,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-36.76830961368713,175.74956812936077</t>
+          <t>-36.768305805796444,175.74954853884287</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -19232,7 +19232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-36.76832019114384,175.7496225474752</t>
+          <t>-36.76832404133173,175.7496423556722</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -19261,7 +19261,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-36.76831860452697,175.74961438475717</t>
+          <t>-36.76831587554459,175.74960034488288</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -19294,7 +19294,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-36.76837593391836,175.74990933116064</t>
+          <t>-36.76837716088606,175.74991564367102</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -19331,7 +19331,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-36.768326706844455,175.74965606904038</t>
+          <t>-36.76832867424565,175.7496661908127</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -19364,7 +19364,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-36.768303690300186,175.74953765522258</t>
+          <t>-36.76830680007932,175.7495536541446</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -19401,7 +19401,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-36.76831570630533,175.74959947419305</t>
+          <t>-36.768312554222646,175.74958325759522</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -19430,7 +19430,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-36.76831703906442,175.7496063308757</t>
+          <t>-36.76832076232578,175.74962548605376</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -19496,7 +19496,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-36.7682626706257,175.74932662193152</t>
+          <t>-36.76826643624362,175.74934599475742</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -19525,7 +19525,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-36.76832985891691,175.74967228564353</t>
+          <t>-36.768327828051696,175.74966183736217</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -19558,7 +19558,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-36.76833172054255,175.74968186323525</t>
+          <t>-36.76832861078111,175.7496658643039</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -19595,7 +19595,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-36.76833277828404,175.7496873050489</t>
+          <t>-36.76833700924738,175.74970907230485</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-36.768340055538474,175.74972474473046</t>
+          <t>-36.76833770735595,175.74971266390227</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -19657,7 +19657,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-36.768297788060245,175.7495072899248</t>
+          <t>-36.76829871887997,175.749512078717</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -19694,7 +19694,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-36.76834640197142,175.74975739562075</t>
+          <t>-36.76834631735238,175.7497569602755</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -19731,7 +19731,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-36.76836459502822,175.74985099486645</t>
+          <t>-36.76836620278308,175.74985926642958</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -19764,7 +19764,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-36.76834551347135,175.7497528244958</t>
+          <t>-36.7683438210898,175.74974411759143</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -19793,7 +19793,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-36.7683621833948,175.74983858752228</t>
+          <t>-36.76836438348147,175.7498499065029</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -19830,7 +19830,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-36.76834919439901,175.749771762014</t>
+          <t>-36.76834980788664,175.74977491826718</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-36.76832960505882,175.74967097960834</t>
+          <t>-36.768332566735744,175.74968621668614</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -19925,7 +19925,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-36.76834623273332,175.7497565249303</t>
+          <t>-36.768343461458635,175.7497422673743</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -19958,7 +19958,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-36.76834877130403,175.74976958528768</t>
+          <t>-36.768346190423806,175.74975630725766</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -19991,7 +19991,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-36.768352473383665,175.74978863164364</t>
+          <t>-36.7683548638677,175.74980093014867</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -20057,7 +20057,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-36.768310819518476,175.74957433302515</t>
+          <t>-36.76831443701057,175.7495929440193</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -20090,7 +20090,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-36.76835295994247,175.74979113487913</t>
+          <t>-36.76835061176688,175.74977905404728</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -20123,7 +20123,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-36.76831327349004,175.74958695802684</t>
+          <t>-36.768310163715505,175.7495709591024</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -20160,7 +20160,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-36.76831371774337,175.74958924358756</t>
+          <t>-36.76831799103495,175.7496112285063</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -20197,7 +20197,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-36.76833197440052,175.7496831692705</t>
+          <t>-36.76832994353628,175.74967272098863</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -20230,7 +20230,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-36.76836190838389,175.74983717264973</t>
+          <t>-36.768363939233296,175.74984762093945</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -20267,7 +20267,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-36.76833684000892,175.74970820161457</t>
+          <t>-36.76833294752264,175.7496881757391</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -20304,7 +20304,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-36.768376187773775,175.74991063719725</t>
+          <t>-36.76837938211982,175.74992707149198</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -20341,7 +20341,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-36.768356577399715,175.7498097458916</t>
+          <t>-36.76835831208575,175.74981867047126</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -20374,7 +20374,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-36.76832323744663,175.74963821989465</t>
+          <t>-36.76832327975639,175.74963843756714</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -20411,7 +20411,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-36.7682755541028,175.74939290312386</t>
+          <t>-36.76827631568646,175.74939682122454</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -20448,7 +20448,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-36.76834121905188,175.74973073072664</t>
+          <t>-36.768340944039636,175.7497293158548</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -20477,7 +20477,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-36.76837517235204,175.74990541305084</t>
+          <t>-36.768378133998134,175.7499206501449</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -20535,7 +20535,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-36.7683466346738,175.74975859282014</t>
+          <t>-36.76835090793324,175.74978057775579</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -20572,7 +20572,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-36.76831750447225,175.74960872527285</t>
+          <t>-36.76831572746021,175.74959958302927</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -20638,7 +20638,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-36.768310163715505,175.7495709591024</t>
+          <t>-36.76830969830687,175.74956856470564</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -20675,7 +20675,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-36.768342953743996,175.74973965530307</t>
+          <t>-36.768343228756095,175.749741070175</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -20696,7 +20696,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-36.768322222012614,175.7496329957547</t>
+          <t>-36.76831832951331,175.74961296988607</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -20754,7 +20754,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-36.76832213739309,175.7496325604097</t>
+          <t>-36.768325860650116,175.74965171559006</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -20791,7 +20791,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-36.76831486010886,175.74959512074383</t>
+          <t>-36.768311983039645,175.74958031901724</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -20820,7 +20820,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-36.76831733523306,175.74960785458296</t>
+          <t>-36.768315367826744,175.74959773281336</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -20857,7 +20857,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-36.76832956274912,175.74967076193582</t>
+          <t>-36.768328906948966,175.74966738801157</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -20894,7 +20894,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-36.76830938098279,175.7495669321624</t>
+          <t>-36.76831196188472,175.74958021018102</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -20931,7 +20931,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-36.76834405379229,175.74974531479077</t>
+          <t>-36.76834735393557,175.74976229325472</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-36.76836332574763,175.7498444646852</t>
+          <t>-36.768360279472745,175.74982879225104</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -21001,7 +21001,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-36.76832509907508,175.74964779748487</t>
+          <t>-36.76832806075505,175.74966303456105</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -21063,7 +21063,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-36.76836605470043,175.7498585045751</t>
+          <t>-36.768370560642,175.74988168672078</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -21100,7 +21100,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-36.76836226801353,175.74983902286766</t>
+          <t>-36.76836654125771,175.74986100781135</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -21137,7 +21137,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-36.768296307210264,175.749499671392</t>
+          <t>-36.76829433979451,175.74948954962733</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -21166,7 +21166,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-36.76833436489576,175.7496954677696</t>
+          <t>-36.76833337061914,175.7496903524646</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -21199,7 +21199,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-36.76835706395807,175.74981224912733</t>
+          <t>-36.768357867836954,175.74981638490814</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -21232,7 +21232,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-36.76835812169341,175.7498176909442</t>
+          <t>-36.768359898688225,175.74982683319686</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -21269,7 +21269,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-36.76832488752643,175.74964670912232</t>
+          <t>-36.76832184122478,175.74963103670225</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -21306,7 +21306,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-36.76832526831399,175.7496486681749</t>
+          <t>-36.7683294992846,175.74967043542702</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -21335,7 +21335,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-36.76834915208951,175.74977154434137</t>
+          <t>-36.76834680391186,175.74975946351063</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -21372,7 +21372,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-36.7683362899839,175.7497053718712</t>
+          <t>-36.768333095606415,175.74968893759302</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -21405,7 +21405,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-36.76830077091369,175.74952263582747</t>
+          <t>-36.76830273832654,175.74953275759364</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -21471,7 +21471,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-36.768363706531844,175.74984642373957</t>
+          <t>-36.76836577968976,175.7498570897024</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -21508,7 +21508,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-36.76832201046383,175.74963190739223</t>
+          <t>-36.768325437552896,175.74964953886493</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -21545,7 +21545,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-36.768328251148695,175.74966401408741</t>
+          <t>-36.76832966852334,175.74967130611714</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -21582,7 +21582,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-36.76836668934035,175.74986176966587</t>
+          <t>-36.768371491446246,175.74988647552112</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -21611,7 +21611,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-36.76832463366803,175.74964540308727</t>
+          <t>-36.76832224316748,175.74963310459094</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -21648,7 +21648,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-36.76832573372095,175.74965106257253</t>
+          <t>-36.76832370285381,175.74964061429216</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -21677,7 +21677,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-36.76832609335357,175.7496529127889</t>
+          <t>-36.768323322066124,175.74963865523964</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -21714,7 +21714,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-36.76832833576809,175.7496644494325</t>
+          <t>-36.768329985845966,175.74967293866115</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -21751,7 +21751,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-36.76831689098008,175.74960556902204</t>
+          <t>-36.76831877376613,175.74961525544708</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -21809,7 +21809,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-36.76834375762548,175.74974379108252</t>
+          <t>-36.76834041516991,175.74972659494742</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -21846,7 +21846,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-36.76829992471433,175.7495182823798</t>
+          <t>-36.768303119116034,175.7495347166452</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -21879,7 +21879,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-36.76835843901398,175.7498193234893</t>
+          <t>-36.76836239494164,175.74983967588577</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -21908,7 +21908,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-36.76833036663307,175.74967489771396</t>
+          <t>-36.768327828051696,175.74966183736217</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -21945,7 +21945,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-36.76830394415979,175.749538961257</t>
+          <t>-36.76830117285832,175.74952470371514</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -21982,7 +21982,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-36.76835126756378,175.74978242797323</t>
+          <t>-36.76835130987327,175.7497826456459</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -22019,7 +22019,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-36.768354334999664,175.74979820924042</t>
+          <t>-36.76835399652409,175.74979646785914</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -22052,7 +22052,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-36.768350463683674,175.74977829219307</t>
+          <t>-36.76834741739984,175.74976261976363</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -22089,7 +22089,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-36.76832205277357,175.74963212506472</t>
+          <t>-36.76832619912787,175.74965345697018</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -22151,7 +22151,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-36.76828202755973,175.74942620698175</t>
+          <t>-36.76828522197447,175.74944264124028</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -22184,7 +22184,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-36.76833157245872,175.74968110138136</t>
+          <t>-36.768328758865046,175.74966662615773</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -22209,7 +22209,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-36.768320423847605,175.74962374467387</t>
+          <t>-36.76831991613028,175.74962113260406</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -22242,7 +22242,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-36.768356513935586,175.74980941938261</t>
+          <t>-36.76835744474282,175.7498142081814</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -22279,7 +22279,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-36.76834018246722,175.74972539774822</t>
+          <t>-36.76833882856037,175.74971843222556</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -22316,7 +22316,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-36.768351013706926,175.7497811219374</t>
+          <t>-36.76835232530053,175.74978786978937</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -22353,7 +22353,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-36.76834085942048,175.74972888050962</t>
+          <t>-36.76834390570889,175.74974455293665</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -22390,7 +22390,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-36.7683304300976,175.74967522422276</t>
+          <t>-36.768328124219614,175.74966336106985</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -22427,7 +22427,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-36.768329837762074,175.74967217680728</t>
+          <t>-36.76832721456098,175.7496586811106</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-36.768330599336295,175.74967609491293</t>
+          <t>-36.768328758865046,175.74966662615773</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -22489,7 +22489,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-36.76831898531506,175.7496163438095</t>
+          <t>-36.76831894300527,175.749616126137</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -22522,7 +22522,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-36.76833849008359,175.74971669084493</t>
+          <t>-36.768339378585075,175.7497212619691</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -22588,7 +22588,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-36.768332630200234,175.74968654319497</t>
+          <t>-36.768329626213664,175.74967108844461</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -22625,7 +22625,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-36.768375531980595,175.74990726326934</t>
+          <t>-36.76837680125763,175.74991379345244</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -22662,7 +22662,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-36.76835524465266,175.7498028892026</t>
+          <t>-36.76835558312814,175.74980463058395</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -22699,7 +22699,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-36.76832842038749,175.74966488477753</t>
+          <t>-36.76832512022994,175.74964790632112</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -22728,7 +22728,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-36.768290679975756,175.7494707209696</t>
+          <t>-36.76829330319876,175.74948421665476</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -22757,7 +22757,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-36.768345598090434,175.74975325984104</t>
+          <t>-36.76834225563627,175.7497360637052</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -22786,7 +22786,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-36.768363579603786,175.74984577072144</t>
+          <t>-36.76836654125771,175.74986100781135</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -22823,7 +22823,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-36.76832918196196,175.74966880288304</t>
+          <t>-36.768332101329506,175.74968382228815</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-36.76833618420984,175.74970482768978</t>
+          <t>-36.76833453413431,175.74969633845984</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -22889,7 +22889,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-36.76832717225126,175.7496584634381</t>
+          <t>-36.768324125951224,175.7496427910172</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -22926,7 +22926,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-36.76832292012352,175.7496365873509</t>
+          <t>-36.76832076232578,175.74962548605376</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -22959,7 +22959,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>-36.768364002697325,175.7498479474485</t>
+          <t>-36.768365970081746,175.74985806922965</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -22996,7 +22996,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>-36.76833288405815,175.74968784923024</t>
+          <t>-36.76833153014905,175.7496808837088</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -23029,7 +23029,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-36.768345344233225,175.74975195380537</t>
+          <t>-36.7683458519476,175.74975456587674</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -23066,7 +23066,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-36.768363368057,175.74984468235792</t>
+          <t>-36.76836501812165,175.74985317159357</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -23103,7 +23103,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-36.76836241609633,175.7498397847221</t>
+          <t>-36.76836195069327,175.74983739032243</t>
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -23136,7 +23136,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-36.76836216224011,175.74983847868592</t>
+          <t>-36.76836497581232,175.74985295392082</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -23173,7 +23173,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>-36.76831832951331,175.74961296988607</t>
+          <t>-36.76832175660525,175.74963060135727</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -23210,7 +23210,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-36.768321989308944,175.74963179855598</t>
+          <t>-36.768326791463885,175.7496565043854</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -23247,7 +23247,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-36.768330303168554,175.74967457120516</t>
+          <t>-36.76832884348443,175.7496670615028</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -23284,7 +23284,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-36.76833548610105,175.74970123609245</t>
+          <t>-36.768333561012554,175.7496913319911</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -23321,7 +23321,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>-36.76834375762548,175.74974379108252</t>
+          <t>-36.768346486590474,175.749757830966</t>
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -23346,7 +23346,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-36.76830961368713,175.74956812936077</t>
+          <t>-36.768306144275755,175.7495502802222</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -23383,7 +23383,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-36.76831786410556,175.74961057548887</t>
+          <t>-36.76832116426857,175.74962755394242</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -23441,7 +23441,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-36.76836620278308,175.74985926642958</t>
+          <t>-36.7683670066603,175.7498634022113</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -23470,7 +23470,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-36.768311686870646,175.74957879531013</t>
+          <t>-36.76830948675749,175.7495674763435</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -23507,7 +23507,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>-36.76835810053871,175.74981758210785</t>
+          <t>-36.76835771975401,175.7498156230538</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -23540,7 +23540,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>-36.76833345523843,175.7496907878097</t>
+          <t>-36.768331910936034,175.7496828427617</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -23577,7 +23577,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-36.768329456974925,175.7496702177545</t>
+          <t>-36.768326029889,175.74965258628012</t>
         </is>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -23606,7 +23606,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-36.7683783243896,175.7499216296724</t>
+          <t>-36.768382936091456,175.74994535600675</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -23643,7 +23643,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-36.76833719964063,175.7497100518314</t>
+          <t>-36.76833546494623,175.74970112725617</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -23701,7 +23701,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-36.76832154505645,175.7496295129948</t>
+          <t>-36.76832338553074,175.7496389817484</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -23738,7 +23738,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>-36.76833684000892,175.74970820161457</t>
+          <t>-36.768334491824675,175.7496961207873</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -23771,7 +23771,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>-36.768318371823106,175.74961318755857</t>
+          <t>-36.76832287781377,175.7496363696784</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -23808,7 +23808,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>-36.76832884348443,175.7496670615028</t>
+          <t>-36.768327383799814,175.7496595518007</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -23841,7 +23841,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>-36.76833277828404,175.7496873050489</t>
+          <t>-36.76833339177396,175.74969046130087</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -23878,7 +23878,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>-36.76835752936165,175.74981464352675</t>
+          <t>-36.768357910146364,175.74981660258084</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -23911,7 +23911,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>-36.76833271481955,175.74968697854007</t>
+          <t>-36.768329245426486,175.74966912939183</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -23948,7 +23948,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>-36.768368868270116,175.7498729798113</t>
+          <t>-36.76837225301322,175.7498903936306</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -23985,7 +23985,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>-36.7683292031168,175.7496689117193</t>
+          <t>-36.76832685492844,175.7496568308942</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -24022,7 +24022,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>-36.7683052134576,175.74954549142916</t>
+          <t>-36.76830902134879,175.74956508194677</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -24059,7 +24059,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>-36.76832928773617,175.74966934706435</t>
+          <t>-36.76832693954787,175.7496572662392</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -24096,7 +24096,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-36.768349934815106,175.7497755712851</t>
+          <t>-36.768349554029705,175.7497736122314</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -24129,7 +24129,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>-36.76834963864869,175.74977404757666</t>
+          <t>-36.76834898285153,175.74977067365083</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -24166,7 +24166,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>-36.768302801791464,175.74953308410224</t>
+          <t>-36.76830445187896,175.74954157332584</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -24236,7 +24236,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>-36.7682807582552,175.74941967681312</t>
+          <t>-36.768280060137556,175.74941608522047</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -24273,7 +24273,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>-36.76832550101747,175.7496498653737</t>
+          <t>-36.76832287781377,175.7496363696784</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -24310,7 +24310,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-36.768347290471304,175.74976196674575</t>
+          <t>-36.76835143680168,175.74978329866383</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -24343,7 +24343,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>-36.76835177527746,175.74978504004497</t>
+          <t>-36.76835234645527,175.7497879786257</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -24413,7 +24413,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>-36.7683478616497,175.7497649053262</t>
+          <t>-36.76834894054202,175.7497704559782</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -24471,7 +24471,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>-36.768297682285265,175.74950674574387</t>
+          <t>-36.76829410708936,175.7494883524294</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -24537,7 +24537,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>-36.768330133929844,175.74967370051502</t>
+          <t>-36.76832901272319,175.74966793219292</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -24574,7 +24574,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>-36.76833081088467,175.7496771832756</t>
+          <t>-36.768328314613235,175.7496643405962</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -24611,7 +24611,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>-36.76832928773617,175.74966934706435</t>
+          <t>-36.768326791463885,175.7496565043854</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -24648,7 +24648,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>-36.7683527695499,175.7497901553522</t>
+          <t>-36.768357762063424,175.74981584072646</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -24685,7 +24685,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>-36.768319683426505,175.74961993540538</t>
+          <t>-36.768317229458546,175.7496073104018</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -24710,7 +24710,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>-36.76831079836356,175.74957422418893</t>
+          <t>-36.76830830208071,175.74956138151552</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -24747,7 +24747,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>-36.76828143521766,175.7494231595697</t>
+          <t>-36.76828128713213,175.7494223977167</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -24801,7 +24801,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>-36.76835202913428,175.74978634608084</t>
+          <t>-36.768353636893764,175.74979461764158</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -24838,7 +24838,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>-36.76835583698474,175.74980593661994</t>
+          <t>-36.76835757167106,175.7498148611994</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -24900,7 +24900,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>-36.76832490868129,175.74964681795856</t>
+          <t>-36.768323724008695,175.7496407231284</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -24962,7 +24962,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>-36.76826368607355,175.74933184606417</t>
+          <t>-36.76826552657217,175.74934131480495</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -24999,7 +24999,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>-36.768309655997,175.7495683470332</t>
+          <t>-36.7683130407859,175.74958576082838</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -25082,7 +25082,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>-36.768312935011274,175.74958521664723</t>
+          <t>-36.768313633123675,175.74958880824266</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -25119,7 +25119,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>-36.768319112244434,175.7496169968269</t>
+          <t>-36.76831892185039,175.74961601730075</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -25177,7 +25177,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>-36.76834934248224,175.74977252386822</t>
+          <t>-36.7683465712095,175.74975826631123</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -25214,7 +25214,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>-36.768319133399324,175.74961710566313</t>
+          <t>-36.768323322066124,175.74963865523964</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -25251,7 +25251,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>-36.76836125258857,175.74983379872296</t>
+          <t>-36.768363939233296,175.74984762093945</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -25288,7 +25288,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>-36.76837481272345,175.74990356283234</t>
+          <t>-36.76837768975135,175.7499183645807</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -25325,7 +25325,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>-36.768347121233234,175.74976109605527</t>
+          <t>-36.768348580911265,175.74976860576086</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -25362,7 +25362,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>-36.76833571880399,175.74970243329153</t>
+          <t>-36.76833294752264,175.7496881757391</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -25391,7 +25391,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>-36.76834130367101,175.74973116607183</t>
+          <t>-36.768339801680966,175.74972343869496</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -25449,7 +25449,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>-36.76837231647712,175.74989072013972</t>
+          <t>-36.7683743473217,175.74990116843196</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -25486,7 +25486,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>-36.76833366678667,175.74969187617248</t>
+          <t>-36.76833104358786,175.74967838047456</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -25523,7 +25523,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>-36.76833576111361,175.7497026509641</t>
+          <t>-36.76833421681202,175.7496947059157</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -25560,7 +25560,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>-36.768348453982775,175.74976795274296</t>
+          <t>-36.76834794626871,175.74976534067144</t>
         </is>
       </c>
       <c r="C332" t="inlineStr"/>
@@ -25581,7 +25581,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>-36.768354038833536,175.7497966855318</t>
+          <t>-36.76835441961856,175.74979864458575</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -25643,7 +25643,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>-36.76837053948735,175.74988157788442</t>
+          <t>-36.76837273956983,175.74989289686724</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -25676,7 +25676,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>-36.76827453865769,175.74938767898976</t>
+          <t>-36.768277965783945,175.74940531044288</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -25713,7 +25713,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>-36.76830948675749,175.7495674763435</t>
+          <t>-36.768307603967465,175.74955778992057</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -25750,7 +25750,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>-36.76833751696271,175.74971168437568</t>
+          <t>-36.76833483030176,175.74969786216775</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -25787,7 +25787,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>-36.76836406616135,175.74984827395755</t>
+          <t>-36.76836571622575,175.74985676319332</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -25824,7 +25824,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>-36.76833853239319,175.7497169085175</t>
+          <t>-36.768338384309594,175.7497161466635</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -25861,7 +25861,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>-36.768351373337474,175.74978297215483</t>
+          <t>-36.76835264262152,175.74978950233424</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -25898,7 +25898,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>-36.768329647368496,175.7496711972809</t>
+          <t>-36.76832683377359,175.74965672205795</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -25935,7 +25935,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>-36.76830578464149,175.74954843000668</t>
+          <t>-36.76830921174327,175.74956606147268</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -25972,7 +25972,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>-36.768377224349905,175.74991597018018</t>
+          <t>-36.7683801859946,175.74993120727495</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -26009,7 +26009,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>-36.7682967514653,175.7495019569518</t>
+          <t>-36.76829751304528,175.74950587505438</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -26046,7 +26046,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>-36.768327954980805,175.74966249037976</t>
+          <t>-36.76832884348443,175.7496670615028</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -26083,7 +26083,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>-36.768346825066615,175.74975957234693</t>
+          <t>-36.76834394801845,175.74974477060925</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -26120,7 +26120,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>-36.7683672182069,175.7498644905749</t>
+          <t>-36.76836990484797,175.74987831279333</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -26153,7 +26153,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>-36.768357296659865,175.74981344632704</t>
+          <t>-36.76835884095331,175.74982139137975</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -26186,7 +26186,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>-36.7683399920741,175.74972441822158</t>
+          <t>-36.76833829969039,175.74971571131834</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -26219,7 +26219,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>-36.768341620992786,175.7497327986163</t>
+          <t>-36.76833942089467,175.7497214796417</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -26256,7 +26256,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>-36.76833971706178,175.74972300334977</t>
+          <t>-36.76834360954206,175.74974302922843</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -26293,7 +26293,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>-36.76834775587592,175.74976436114463</t>
+          <t>-36.76834498460218,175.74975010358816</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -26355,7 +26355,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>-36.76836288149935,175.7498421791218</t>
+          <t>-36.768364954657635,175.7498528450845</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -26392,7 +26392,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>-36.768343144137,175.74974063482978</t>
+          <t>-36.768344603816345,175.74974814453466</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -26429,7 +26429,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>-36.76830957137726,175.74956791168833</t>
+          <t>-36.76830961368713,175.74956812936077</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -26466,7 +26466,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>-36.76834018246722,175.74972539774822</t>
+          <t>-36.76833821507119,175.74971527597316</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -26499,7 +26499,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>-36.76834121905188,175.74973073072664</t>
+          <t>-36.768339484359046,175.74972180615057</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -26536,7 +26536,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>-36.76833098012335,175.74967805396577</t>
+          <t>-36.76833375140596,175.74969231151758</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -26573,7 +26573,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>-36.76833580342324,175.7497028686367</t>
+          <t>-36.76833298983229,175.74968839341165</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -26606,7 +26606,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>-36.768326812618724,175.74965661322167</t>
+          <t>-36.768328272303556,175.7496641229237</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -26643,7 +26643,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>-36.76831957765204,175.74961939122417</t>
+          <t>-36.768320423847605,175.74962374467387</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -26701,7 +26701,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>-36.76837578583604,175.74990856930594</t>
+          <t>-36.768379255192194,175.74992641847362</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -26738,7 +26738,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>-36.76834009784806,175.74972496240304</t>
+          <t>-36.76833705155699,175.7497092899774</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -26775,7 +26775,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>-36.76833789774917,175.74971364342886</t>
+          <t>-36.76833400526381,175.7496936175529</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -26808,7 +26808,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>-36.76833637460314,175.74970580721632</t>
+          <t>-36.76833548610105,175.74970123609245</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -26845,7 +26845,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>-36.76833078972983,175.74967707443935</t>
+          <t>-36.7683318263167,175.7496824074166</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -26882,7 +26882,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>-36.76833774966555,175.74971288157485</t>
+          <t>-36.768335063004734,175.74969905936686</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -26919,7 +26919,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>-36.768309655997,175.7495683470332</t>
+          <t>-36.768312384983254,175.74958238690544</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -26956,7 +26956,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>-36.768315939009305,175.7496006713916</t>
+          <t>-36.76831297732113,175.7495854343197</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -26989,7 +26989,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>-36.7683576985993,175.74981551421743</t>
+          <t>-36.768359115964415,175.7498228062522</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
